--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0A2323-B245-4946-8947-777C784F2A7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B728AB-E3BE-0947-9D15-97389013BF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="4220" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -209,6 +220,54 @@
     <rPh sb="42" eb="44">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細閲覧</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埋め込みYouTube</t>
+    <rPh sb="0" eb="1">
+      <t>ウメコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿一覧に表示されているものをクリックして詳細を表示する</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウイチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域などのカテゴリーを選択させる</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yutubeのリンクを動画リンク（１個）として登録</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -618,16 +677,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -657,7 +716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -672,7 +731,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -687,25 +746,49 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
   </sheetData>
@@ -730,15 +813,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -748,7 +831,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -762,61 +845,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -837,15 +920,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -855,7 +938,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -869,61 +952,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B728AB-E3BE-0947-9D15-97389013BF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790495DB-F2F6-0A48-AED0-ABCA4017601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="4220" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="2900" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -268,6 +268,40 @@
   </si>
   <si>
     <t>yutubeのリンクを動画リンク（１個）として登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿編集</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みの記事を編集する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿削除</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みの記事を削除する</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -362,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -393,6 +427,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -790,6 +827,65 @@
         <v>21</v>
       </c>
       <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="40">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="40" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790495DB-F2F6-0A48-AED0-ABCA4017601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA2804-AE2E-4286-B0E8-09F90340E894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="2900" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -301,6 +301,33 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境整備</t>
+    <rPh sb="0" eb="4">
+      <t>カイハツカンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSCode＿コーディングの基盤を共有</t>
+    <rPh sb="14" eb="16">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上</t>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -396,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -427,9 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,17 +737,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -753,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+    <row r="3" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -768,7 +792,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+    <row r="4" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -783,7 +807,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+    <row r="5" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,7 +822,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+    <row r="6" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -813,7 +837,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+    <row r="7" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -828,7 +852,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1">
+    <row r="8" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -843,7 +867,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="40">
+    <row r="9" spans="1:5" ht="34.799999999999997">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -858,7 +882,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1">
+    <row r="10" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -873,20 +897,8 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
+    <row r="11" spans="1:5" ht="40.049999999999997" customHeight="1"/>
+    <row r="12" spans="1:5" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
@@ -905,19 +917,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -927,7 +939,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -941,61 +953,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1016,15 +1036,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1054,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1048,61 +1068,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA2804-AE2E-4286-B0E8-09F90340E894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1C84E5-4727-435E-B21C-E4A1712ED397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -867,38 +867,23 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="34.799999999999997">
+    <row r="9" spans="1:5" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
+    <row r="10" spans="1:5" ht="40.049999999999997" customHeight="1"/>
     <row r="11" spans="1:5" ht="40.049999999999997" customHeight="1"/>
-    <row r="12" spans="1:5" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
@@ -917,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,14 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1C84E5-4727-435E-B21C-E4A1712ED397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5FB73-72AF-4B41-A6F4-E5EB96C73BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
     <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId2"/>
     <sheet name="スプリント計画（機能２）" sheetId="7" r:id="rId3"/>
+    <sheet name="スプリント計画（機能３）" sheetId="8" r:id="rId4"/>
+    <sheet name="スプリント計画（機能４）" sheetId="9" r:id="rId5"/>
+    <sheet name="スプリント計画（機能５）" sheetId="10" r:id="rId6"/>
+    <sheet name="スプリント計画（機能６）" sheetId="11" r:id="rId7"/>
+    <sheet name="スプリント計画（機能７）" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -737,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -903,7 +908,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -939,18 +944,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="8"/>
@@ -1018,7 +1015,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1054,6 +1051,549 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FE13CC-796C-4D9D-96F0-47FE2FA6845C}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C3</f>
+        <v>投稿一覧</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C247C2E5-1A27-406A-930D-4E34F47D0FA6}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C3</f>
+        <v>投稿一覧</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B42033-3C95-47D8-9116-47ADFFAD48CC}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B21" sqref="B20:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C3</f>
+        <v>投稿一覧</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DE258A-B0A6-4684-8624-B82E3861E335}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C3</f>
+        <v>投稿一覧</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD366EE-9627-47F4-9B65-43E38E3F6596}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C3</f>
+        <v>投稿一覧</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5FB73-72AF-4B41-A6F4-E5EB96C73BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4ABD86-0824-4C1E-B3F0-1743CEC54134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -333,6 +333,57 @@
     <t>井上</t>
     <rPh sb="0" eb="2">
       <t>イノウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース設計</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース構築</t>
+    <rPh sb="6" eb="8">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォーム作成</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBManager関数作成</t>
+    <rPh sb="9" eb="13">
+      <t>カンスウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ受け取り処理作成</t>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショリサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ挿入処理作成</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -743,7 +794,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1014,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1065,40 +1116,76 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="8"/>
@@ -1557,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD366EE-9627-47F4-9B65-43E38E3F6596}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="68" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4ABD86-0824-4C1E-B3F0-1743CEC54134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF49DF-E23A-4C82-B2D6-D6C76F7C02B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF49DF-E23A-4C82-B2D6-D6C76F7C02B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC65634F-91D7-45AA-AAA0-DC3615367E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1890" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -30,10 +30,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -384,6 +384,20 @@
     <t>データ挿入処理作成</t>
     <rPh sb="5" eb="7">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況
+[実施・完了]</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -797,13 +811,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -833,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:5" ht="40.15" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -848,7 +862,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:5" ht="40.15" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -863,7 +877,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:5" ht="40.15" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -878,7 +892,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:5" ht="40.15" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -893,7 +907,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:5" ht="40.15" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -908,7 +922,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:5" ht="40.15" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -923,7 +937,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:5" ht="40.15" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -938,8 +952,8 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40.049999999999997" customHeight="1"/>
-    <row r="11" spans="1:5" ht="40.049999999999997" customHeight="1"/>
+    <row r="10" spans="1:5" ht="40.15" customHeight="1"/>
+    <row r="11" spans="1:5" ht="40.15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
@@ -956,21 +970,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:5" ht="40.15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -980,7 +996,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:5" ht="40.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -993,66 +1009,79 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.15" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40.15" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.15" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.15" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.15" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40.15" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.15" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.15" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1063,21 +1092,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:5" ht="40.15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1118,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:5" ht="40.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1100,8 +1131,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1114,8 +1148,9 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.15" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -1126,8 +1161,9 @@
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40.15" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1138,8 +1174,9 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.15" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -1150,8 +1187,9 @@
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.15" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1162,8 +1200,9 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.15" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -1174,8 +1213,9 @@
       <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.15" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
@@ -1186,24 +1226,28 @@
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40.15" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.15" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.15" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1214,21 +1258,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FE13CC-796C-4D9D-96F0-47FE2FA6845C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:5" ht="40.15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1284,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:5" ht="40.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1251,66 +1297,79 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.15" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40.15" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.15" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.15" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.15" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40.15" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.15" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.15" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1321,21 +1380,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C247C2E5-1A27-406A-930D-4E34F47D0FA6}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" zoomScale="68" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:5" ht="40.15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1406,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:5" ht="40.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1358,66 +1419,79 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.15" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40.15" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.15" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.15" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.15" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40.15" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.15" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.15" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1428,21 +1502,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B42033-3C95-47D8-9116-47ADFFAD48CC}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B21" sqref="B20:B21"/>
+    <sheetView topLeftCell="A11" zoomScale="68" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:5" ht="40.15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1528,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:5" ht="40.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1465,66 +1541,79 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.15" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40.15" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.15" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.15" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.15" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40.15" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.15" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.15" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1535,21 +1624,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DE258A-B0A6-4684-8624-B82E3861E335}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B21"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:5" ht="40.15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1559,7 +1650,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:5" ht="40.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1572,66 +1663,79 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.15" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40.15" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.15" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.15" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.15" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40.15" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.15" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.15" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1642,21 +1746,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD366EE-9627-47F4-9B65-43E38E3F6596}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B21"/>
+    <sheetView topLeftCell="A4" zoomScale="68" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:5" ht="40.15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1772,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:5" ht="40.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1679,66 +1785,79 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.15" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.15" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="40.15" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="40.15" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40.15" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.15" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40.15" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.15" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40.15" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC65634F-91D7-45AA-AAA0-DC3615367E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEB80A2-816B-4639-995D-1B3C2372C101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1890" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -30,10 +30,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -397,6 +397,13 @@
       <t>ジッシ</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -811,13 +818,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -847,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.15" customHeight="1">
+    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -862,7 +869,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="40.15" customHeight="1">
+    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -877,7 +884,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1">
+    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -892,7 +899,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1">
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -907,7 +914,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="40.15" customHeight="1">
+    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,7 +929,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="40.15" customHeight="1">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -937,7 +944,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="40.15" customHeight="1">
+    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -952,8 +959,8 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40.15" customHeight="1"/>
-    <row r="11" spans="1:5" ht="40.15" customHeight="1"/>
+    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1"/>
+    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
@@ -972,21 +979,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.15" customHeight="1">
+    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1003,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="40.15" customHeight="1">
+    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1013,70 +1020,70 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.15" customHeight="1">
+    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="40.15" customHeight="1">
+    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1">
+    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1">
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="40.15" customHeight="1">
+    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="40.15" customHeight="1">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="40.15" customHeight="1">
+    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="40.15" customHeight="1">
+    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="40.15" customHeight="1">
+    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="40.15" customHeight="1">
+    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1094,21 +1101,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.15" customHeight="1">
+    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1118,7 +1125,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="40.15" customHeight="1">
+    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.15" customHeight="1">
+    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1148,9 +1155,11 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.15" customHeight="1">
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -1161,9 +1170,11 @@
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1">
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -1174,9 +1185,11 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1">
+      <c r="E5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -1187,9 +1200,11 @@
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.15" customHeight="1">
+      <c r="E6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1200,9 +1215,11 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.15" customHeight="1">
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -1213,9 +1230,11 @@
       <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.15" customHeight="1">
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
@@ -1226,23 +1245,25 @@
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.15" customHeight="1">
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="40.15" customHeight="1">
+    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="40.15" customHeight="1">
+    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1260,21 +1281,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FE13CC-796C-4D9D-96F0-47FE2FA6845C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.15" customHeight="1">
+    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1305,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="40.15" customHeight="1">
+    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1301,70 +1322,70 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.15" customHeight="1">
+    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="40.15" customHeight="1">
+    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1">
+    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1">
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="40.15" customHeight="1">
+    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="40.15" customHeight="1">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="40.15" customHeight="1">
+    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="40.15" customHeight="1">
+    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="40.15" customHeight="1">
+    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="40.15" customHeight="1">
+    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1382,21 +1403,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C247C2E5-1A27-406A-930D-4E34F47D0FA6}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.15" customHeight="1">
+    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1427,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="40.15" customHeight="1">
+    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1423,70 +1444,70 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.15" customHeight="1">
+    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="40.15" customHeight="1">
+    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1">
+    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1">
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="40.15" customHeight="1">
+    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="40.15" customHeight="1">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="40.15" customHeight="1">
+    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="40.15" customHeight="1">
+    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="40.15" customHeight="1">
+    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="40.15" customHeight="1">
+    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1508,17 +1529,17 @@
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.15" customHeight="1">
+    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1549,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="40.15" customHeight="1">
+    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1545,70 +1566,70 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.15" customHeight="1">
+    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="40.15" customHeight="1">
+    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1">
+    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1">
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="40.15" customHeight="1">
+    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="40.15" customHeight="1">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="40.15" customHeight="1">
+    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="40.15" customHeight="1">
+    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="40.15" customHeight="1">
+    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="40.15" customHeight="1">
+    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1630,17 +1651,17 @@
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.15" customHeight="1">
+    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1650,7 +1671,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="40.15" customHeight="1">
+    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1667,70 +1688,70 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.15" customHeight="1">
+    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="40.15" customHeight="1">
+    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1">
+    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1">
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="40.15" customHeight="1">
+    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="40.15" customHeight="1">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="40.15" customHeight="1">
+    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="40.15" customHeight="1">
+    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="40.15" customHeight="1">
+    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="40.15" customHeight="1">
+    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1752,17 +1773,17 @@
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.15" customHeight="1">
+    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1793,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="40.15" customHeight="1">
+    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1789,70 +1810,70 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.15" customHeight="1">
+    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="40.15" customHeight="1">
+    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1">
+    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1">
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="40.15" customHeight="1">
+    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="40.15" customHeight="1">
+    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="40.15" customHeight="1">
+    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="40.15" customHeight="1">
+    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="40.15" customHeight="1">
+    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="40.15" customHeight="1">
+    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEB80A2-816B-4639-995D-1B3C2372C101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D755CD-AFE6-4767-8DD6-378112EC2404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -979,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1281,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FE13CC-796C-4D9D-96F0-47FE2FA6845C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1525,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B42033-3C95-47D8-9116-47ADFFAD48CC}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
@@ -1647,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DE258A-B0A6-4684-8624-B82E3861E335}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
@@ -1769,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD366EE-9627-47F4-9B65-43E38E3F6596}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D755CD-AFE6-4767-8DD6-378112EC2404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C53E3-1654-442F-9954-BDED01D33520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A6" sqref="A6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1300,8 +1300,8 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C3</f>
-        <v>投稿一覧</v>
+        <f>'スプリントバックログ (第1スプリント)'!C5</f>
+        <v>投稿詳細閲覧</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -1323,32 +1323,64 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="8"/>
@@ -1404,7 +1436,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1422,8 +1454,8 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C3</f>
-        <v>投稿一覧</v>
+        <f>'スプリントバックログ (第1スプリント)'!C6</f>
+        <v>カテゴリー</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -1526,7 +1558,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1544,8 +1576,8 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C3</f>
-        <v>投稿一覧</v>
+        <f>'スプリントバックログ (第1スプリント)'!C7</f>
+        <v>埋め込みYouTube</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -1648,7 +1680,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1666,8 +1698,8 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C3</f>
-        <v>投稿一覧</v>
+        <f>'スプリントバックログ (第1スプリント)'!C8</f>
+        <v>投稿編集</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -1770,7 +1802,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1788,8 +1820,8 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C3</f>
-        <v>投稿一覧</v>
+        <f>'スプリントバックログ (第1スプリント)'!C9</f>
+        <v>投稿削除</v>
       </c>
       <c r="C1" s="5"/>
     </row>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C53E3-1654-442F-9954-BDED01D33520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850A34B0-6E40-47A9-9F03-9B8D07831583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1323,9 +1323,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8">
         <v>0.5</v>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850A34B0-6E40-47A9-9F03-9B8D07831583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C1DAD-36B1-4C2B-993C-F9701C8F8878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -405,6 +405,32 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況
+[進捗]</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンチョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -464,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -496,11 +522,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -529,7 +592,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -825,145 +903,260 @@
     <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
     <col min="4" max="4" width="60.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="10.69921875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="10.69921875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="48" customHeight="1">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="42" customHeight="1">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="39" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="1">
+      <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="15">
+        <v>45201</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15">
+        <v>45201</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="15">
+        <v>45203</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15">
+        <v>45203</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="15">
+        <v>45205</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="15">
+        <v>45205</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="15">
+        <v>45210</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15">
+        <v>45210</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A8" s="1">
+      <c r="E8" s="1"/>
+      <c r="F8" s="15">
+        <v>45212</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="15">
+        <v>45212</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A9" s="1">
+      <c r="E9" s="1"/>
+      <c r="F9" s="15">
+        <v>45215</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="15">
+        <v>45215</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="15">
+        <v>45217</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="15">
+        <v>45217</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.200000000000003" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -980,7 +1173,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C2" sqref="C2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -998,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C3</f>
+        <f>'スプリントバックログ (第1スプリント)'!C4</f>
         <v>投稿一覧</v>
       </c>
       <c r="C1" s="5"/>
@@ -1102,7 +1295,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E9"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1120,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C4</f>
+        <f>'スプリントバックログ (第1スプリント)'!C5</f>
         <v>投稿作成</v>
       </c>
       <c r="C1" s="5"/>
@@ -1281,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FE13CC-796C-4D9D-96F0-47FE2FA6845C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1300,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C5</f>
+        <f>'スプリントバックログ (第1スプリント)'!C6</f>
         <v>投稿詳細閲覧</v>
       </c>
       <c r="C1" s="5"/>
@@ -1434,7 +1627,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1452,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C6</f>
+        <f>'スプリントバックログ (第1スプリント)'!C7</f>
         <v>カテゴリー</v>
       </c>
       <c r="C1" s="5"/>
@@ -1574,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C7</f>
+        <f>'スプリントバックログ (第1スプリント)'!C8</f>
         <v>埋め込みYouTube</v>
       </c>
       <c r="C1" s="5"/>
@@ -1696,7 +1889,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C8</f>
+        <f>'スプリントバックログ (第1スプリント)'!C9</f>
         <v>投稿編集</v>
       </c>
       <c r="C1" s="5"/>
@@ -1818,7 +2011,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C9</f>
+        <f>'スプリントバックログ (第1スプリント)'!C10</f>
         <v>投稿削除</v>
       </c>
       <c r="C1" s="5"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C1DAD-36B1-4C2B-993C-F9701C8F8878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCAE8E-7A3A-4E10-8DEF-F613F1F33BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -239,13 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>埋め込みYouTube</t>
-    <rPh sb="0" eb="1">
-      <t>ウメコミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿一覧に表示されているものをクリックして詳細を表示する</t>
     <rPh sb="0" eb="4">
       <t>トウコウイチラン</t>
@@ -269,10 +262,6 @@
     <rPh sb="11" eb="13">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yutubeのリンクを動画リンク（１個）として登録</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -592,10 +581,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,9 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -914,24 +903,24 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
+      <c r="F2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -950,22 +939,22 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -982,12 +971,12 @@
         <v>13</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="15">
+      <c r="F4" s="10">
         <v>45201</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="15">
+      <c r="I4" s="10">
         <v>45201</v>
       </c>
       <c r="J4" s="8"/>
@@ -1007,19 +996,19 @@
         <v>15</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <v>45203</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="15">
+      <c r="I5" s="10">
         <v>45203</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -1033,22 +1022,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <v>45205</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <v>45205</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -1062,15 +1051,15 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="15">
+      <c r="F7" s="10">
         <v>45210</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="15">
+      <c r="I7" s="10">
         <v>45210</v>
       </c>
       <c r="J7" s="8"/>
@@ -1081,21 +1070,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="15">
+      <c r="F8" s="10">
         <v>45212</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="15">
+      <c r="I8" s="10">
         <v>45212</v>
       </c>
       <c r="J8" s="8"/>
@@ -1106,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -1115,43 +1104,18 @@
         <v>23</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="15">
+      <c r="F9" s="10">
         <v>45215</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="15">
+      <c r="I9" s="10">
         <v>45215</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="15">
-        <v>45217</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="15">
-        <v>45217</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="40.200000000000003" customHeight="1"/>
+    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
@@ -1210,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
@@ -1332,114 +1296,114 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8">
         <v>0.5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8">
         <v>0.5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8">
         <v>0.5</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8">
         <v>0.5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
@@ -1512,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
@@ -1522,55 +1486,55 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8">
         <v>0.5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8">
         <v>0.5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8">
         <v>0.5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
@@ -1664,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
@@ -1766,9 +1730,9 @@
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C8</f>
-        <v>埋め込みYouTube</v>
+      <c r="B1" s="6" t="e">
+        <f>'スプリントバックログ (第1スプリント)'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -1786,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
@@ -1889,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C9</f>
+        <f>'スプリントバックログ (第1スプリント)'!C8</f>
         <v>投稿編集</v>
       </c>
       <c r="C1" s="5"/>
@@ -1908,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
@@ -2011,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C10</f>
+        <f>'スプリントバックログ (第1スプリント)'!C9</f>
         <v>投稿削除</v>
       </c>
       <c r="C1" s="5"/>
@@ -2030,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,19 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCAE8E-7A3A-4E10-8DEF-F613F1F33BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0B5B8-D373-4B7A-83F8-8868ED30BD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
     <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId2"/>
-    <sheet name="スプリント計画（機能２）" sheetId="7" r:id="rId3"/>
-    <sheet name="スプリント計画（機能３）" sheetId="8" r:id="rId4"/>
-    <sheet name="スプリント計画（機能４）" sheetId="9" r:id="rId5"/>
-    <sheet name="スプリント計画（機能５）" sheetId="10" r:id="rId6"/>
-    <sheet name="スプリント計画（機能６）" sheetId="11" r:id="rId7"/>
-    <sheet name="スプリント計画（機能７）" sheetId="13" r:id="rId8"/>
+    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId3"/>
+    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId4"/>
+    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId5"/>
+    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId6"/>
+    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -357,19 +356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ受け取り処理作成</t>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショリサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ挿入処理作成</t>
     <rPh sb="5" eb="7">
       <t>ショリ</t>
@@ -413,13 +399,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>状況
-[進捗]</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンチョク</t>
+    <t>データ出力画面作成</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガメンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ抽出処理作成</t>
+    <rPh sb="3" eb="5">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ受け取り処理</t>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -465,7 +473,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +483,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -567,9 +587,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,6 +614,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -903,58 +950,58 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="39" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="39" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -971,16 +1018,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>45201</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="9">
         <v>45201</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
@@ -996,19 +1043,19 @@
         <v>15</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>45203</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="9">
         <v>45203</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>34</v>
+      <c r="K5" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -1025,19 +1072,19 @@
         <v>18</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>45205</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="9">
         <v>45205</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>34</v>
+      <c r="K6" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -1054,16 +1101,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>45210</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="10">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="9">
         <v>45210</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1">
@@ -1079,16 +1126,16 @@
         <v>21</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>45212</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9">
         <v>45212</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
@@ -1104,16 +1151,16 @@
         <v>23</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>45215</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="10">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9">
         <v>45215</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
   </sheetData>
@@ -1134,120 +1181,214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D9"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="20" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C4</f>
         <v>投稿一覧</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1255,179 +1396,273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="20" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C5</f>
         <v>投稿作成</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8">
+      <c r="K5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8">
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
         <v>0.5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
         <v>0.5</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="K10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1435,151 +1670,239 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FE13CC-796C-4D9D-96F0-47FE2FA6845C}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ACE829-E4A2-4376-BA0D-D0F2E0135439}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="20" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C6</f>
         <v>投稿詳細閲覧</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
         <v>0.5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="K5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1587,121 +1910,215 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C247C2E5-1A27-406A-930D-4E34F47D0FA6}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="20" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C7</f>
         <v>カテゴリー</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1709,121 +2126,215 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B42033-3C95-47D8-9116-47ADFFAD48CC}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="e">
-        <f>'スプリントバックログ (第1スプリント)'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="20" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C8</f>
+        <v>投稿編集</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1831,243 +2342,215 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DE258A-B0A6-4684-8624-B82E3861E335}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C8</f>
-        <v>投稿編集</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD366EE-9627-47F4-9B65-43E38E3F6596}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="18.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="20" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C9</f>
         <v>投稿削除</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0B5B8-D373-4B7A-83F8-8868ED30BD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701A43E6-CBB9-486C-AD7B-2BDC5AE50801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -339,16 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力フォーム作成</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DBManager関数作成</t>
     <rPh sb="9" eb="13">
       <t>カンスウサクセイ</t>
@@ -399,19 +389,150 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ出力画面作成</t>
+    <t>カテゴリー選択画面</t>
+    <rPh sb="5" eb="9">
+      <t>センタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBM関数作成</t>
     <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ出力処理</t>
+    <rPh sb="3" eb="7">
+      <t>シュツリョクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力画面作成</t>
+    <rPh sb="0" eb="2">
       <t>シュツリョク</t>
     </rPh>
-    <rPh sb="5" eb="9">
+    <rPh sb="2" eb="6">
       <t>ガメンサクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ抽出処理作成</t>
+    <t>DBM関数作成</t>
+    <rPh sb="3" eb="7">
+      <t>カンスウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリを選択する画面ファイル作成する</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ選択後の画面ファイルを作成</t>
+    <rPh sb="4" eb="7">
+      <t>センタクゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択カテゴリに該当するデータを抽出する関数を作成</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽出関数にカテゴリの引数を渡しデータを取得する関数を作成</t>
+    <rPh sb="0" eb="4">
+      <t>チュウシュツカンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したデータを表示する処理を作成</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力画面ファイルを作成</t>
+    <rPh sb="0" eb="4">
+      <t>シュツリョクガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当するデータを抽出する関数を作成</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ取得処理</t>
     <rPh sb="3" eb="5">
-      <t>チュウシュツ</t>
+      <t>シュトク</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>ショリ</t>
@@ -419,15 +540,311 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ受け取り処理</t>
-    <rPh sb="3" eb="4">
+    <t>データ取得処理</t>
+    <rPh sb="3" eb="7">
+      <t>シュトクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽出関数に引数を渡しデータを取得する処理を作成</t>
+    <rPh sb="0" eb="4">
+      <t>チュウシュツカンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したデータを出力する処理を作成</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒見</t>
+    <rPh sb="0" eb="2">
+      <t>サケミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面作成</t>
+    <rPh sb="0" eb="6">
+      <t>ヘンシュウガメンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面ファイルを作成</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象のデータの更新処理をする関数を作成</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力画面作成</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け取り処理作成</t>
+    <rPh sb="0" eb="1">
       <t>ウ</t>
     </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力データ受け取り処理のファイルを作成</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
     <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>ト</t>
     </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択画面作成</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力画面ファイルを作成し、入力フォームを作成する</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ更新処理</t>
+    <rPh sb="3" eb="7">
+      <t>コウシンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新処理関数に引数を渡し、データを更新する処理を作成</t>
+    <rPh sb="0" eb="6">
+      <t>コウシンショリカンスウ</t>
+    </rPh>
     <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面ファイルを作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象のデータの削除処理をする関数を作成</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除処理関数に引数を渡し、データを削除する処理を作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ削除処理</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全件検索する関数を作成</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンケンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全件取得関数に引数を渡しデータを取得する処理を作成</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -598,14 +1015,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -616,35 +1054,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -950,58 +1373,58 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="39" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="39" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>32</v>
+      <c r="H3" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -1018,16 +1441,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="9">
+      <c r="F4" s="24">
         <v>45201</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="24">
         <v>45201</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
@@ -1043,19 +1466,19 @@
         <v>15</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="9">
+      <c r="F5" s="24">
         <v>45203</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="9">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24">
         <v>45203</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>33</v>
+      <c r="K5" s="25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -1072,19 +1495,19 @@
         <v>18</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="9">
+      <c r="F6" s="24">
         <v>45205</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="9">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24">
         <v>45205</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>33</v>
+      <c r="K6" s="26">
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -1101,16 +1524,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="9">
+      <c r="F7" s="24">
         <v>45210</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24">
         <v>45210</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1">
@@ -1126,16 +1549,16 @@
         <v>21</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="9">
+      <c r="F8" s="24">
         <v>45212</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24">
         <v>45212</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
@@ -1151,16 +1574,16 @@
         <v>23</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="9">
+      <c r="F9" s="24">
         <v>45215</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="24">
         <v>45215</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
   </sheetData>
@@ -1184,7 +1607,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1200,53 +1623,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="str">
+      <c r="B1" s="12" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C4</f>
         <v>投稿一覧</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>32</v>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -1261,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1270,8 +1693,12 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1282,8 +1709,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1294,8 +1725,12 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1306,8 +1741,12 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1400,7 +1839,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1416,53 +1855,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="str">
+      <c r="B1" s="12" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C5</f>
         <v>投稿作成</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>32</v>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -1477,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1499,7 +1938,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1519,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1539,7 +1978,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1549,9 +1988,11 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="I7" s="7">
         <v>0.5</v>
       </c>
@@ -1559,7 +2000,7 @@
         <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1569,9 +2010,11 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I8" s="7">
         <v>0.5</v>
       </c>
@@ -1579,7 +2022,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1589,7 +2032,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
@@ -1599,7 +2042,7 @@
         <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1609,7 +2052,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7">
@@ -1619,7 +2062,7 @@
         <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1674,7 +2117,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1690,53 +2133,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="str">
+      <c r="B1" s="12" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C6</f>
         <v>投稿詳細閲覧</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>32</v>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -1751,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1761,9 +2204,11 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="I4" s="7">
         <v>0.5</v>
       </c>
@@ -1771,7 +2216,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1781,9 +2226,11 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="I5" s="7">
         <v>0.5</v>
       </c>
@@ -1791,7 +2238,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1801,17 +2248,19 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="I6" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1820,11 +2269,21 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="7"/>
@@ -1914,7 +2373,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1930,53 +2389,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="str">
+      <c r="B1" s="12" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C7</f>
         <v>カテゴリー</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>32</v>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -1991,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -2000,10 +2459,16 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -2012,10 +2477,16 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -2024,10 +2495,16 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -2036,10 +2513,16 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -2048,10 +2531,16 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -2130,7 +2619,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -2146,53 +2635,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="str">
+      <c r="B1" s="12" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C8</f>
         <v>投稿編集</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>32</v>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -2207,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -2216,8 +2705,12 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2228,8 +2721,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2240,8 +2737,12 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -2252,8 +2753,12 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2264,8 +2769,12 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -2276,8 +2785,12 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -2346,7 +2859,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -2362,53 +2875,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="str">
+      <c r="B1" s="12" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C9</f>
         <v>投稿削除</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>32</v>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -2423,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -2432,8 +2945,12 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2444,8 +2961,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -2456,8 +2977,12 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701A43E6-CBB9-486C-AD7B-2BDC5AE50801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373857BF-3A89-417B-889F-58420E9EDA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,6 +1030,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1058,15 +1067,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1373,24 +1373,24 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -1441,16 +1441,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="24">
+      <c r="F4" s="14">
         <v>45201</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="24">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14">
         <v>45201</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
@@ -1466,18 +1466,18 @@
         <v>15</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="24">
+      <c r="F5" s="14">
         <v>45203</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="24">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14">
         <v>45203</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1495,19 +1495,19 @@
         <v>18</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="24">
+      <c r="F6" s="14">
         <v>45205</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14">
         <v>45205</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="26">
-        <v>0.75</v>
+      <c r="K6" s="16">
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
@@ -1524,16 +1524,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="24">
+      <c r="F7" s="14">
         <v>45210</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14">
         <v>45210</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1">
@@ -1549,16 +1549,16 @@
         <v>21</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="24">
+      <c r="F8" s="14">
         <v>45212</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="24">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14">
         <v>45212</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
@@ -1574,16 +1574,16 @@
         <v>23</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="24">
+      <c r="F9" s="14">
         <v>45215</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="24">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14">
         <v>45215</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
   </sheetData>
@@ -1640,20 +1640,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1872,20 +1872,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2150,20 +2150,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2406,20 +2406,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2618,9 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView zoomScale="74" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -2652,20 +2650,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2858,9 +2856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView zoomScale="74" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -2892,20 +2888,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373857BF-3A89-417B-889F-58420E9EDA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E29920-5D6E-4058-8A5D-BD9FF2FBFC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -845,6 +845,91 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカルタスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※プロジェクト全体の進行に関わる先行度高い作業
+※機能作成以外で必要、且つ共有する必要のあるタスクを記載してください</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>センコウド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>キノウイガイ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>サクセイイガイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善中</t>
+    <rPh sb="0" eb="3">
+      <t>カイゼンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの整合性を保てるように設計</t>
+    <rPh sb="4" eb="7">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンドのコーディングに必要。メンバーがローカルで複製</t>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -989,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1039,12 +1124,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,6 +1147,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,23 +1440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.69921875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10.69921875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1373,24 +1460,28 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -1449,8 +1540,12 @@
       <c r="I4" s="14">
         <v>45201</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="J4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
@@ -1586,11 +1681,144 @@
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="26">
+        <v>45194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="26">
+        <v>45196</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="26">
+        <v>45198</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1607,7 +1835,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1640,20 +1868,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -1699,9 +1927,15 @@
       <c r="H4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="7"/>
@@ -1715,9 +1949,15 @@
       <c r="H5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="7"/>
@@ -1731,9 +1971,15 @@
       <c r="H6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="7"/>
@@ -1747,9 +1993,15 @@
       <c r="H7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="7"/>
@@ -1838,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="B1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1872,20 +2124,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -1926,13 +2178,13 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I4" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>26</v>
@@ -1948,11 +2200,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I5" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
@@ -1968,11 +2222,11 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -1988,11 +2242,9 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="7">
         <v>0.5</v>
       </c>
@@ -2009,21 +2261,11 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="7"/>
@@ -2031,19 +2273,11 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="7"/>
@@ -2051,19 +2285,11 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="7"/>
@@ -2150,20 +2376,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2372,9 +2598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -2406,20 +2630,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2650,20 +2874,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2888,20 +3112,20 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="9" t="s">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E29920-5D6E-4058-8A5D-BD9FF2FBFC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C0375-98D6-4411-8757-EB1B16271AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="77">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -853,50 +853,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※プロジェクト全体の進行に関わる先行度高い作業
-※機能作成以外で必要、且つ共有する必要のあるタスクを記載してください</t>
-    <rPh sb="4" eb="6">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カカ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>センコウド</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>キノウイガイ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>サクセイイガイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全員</t>
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
@@ -930,6 +886,60 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※プロジェクト全体の進行に関わる先行度高い作業
+※機能作成以前に必要、且つ共有する必要のあるタスクを記載してください</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>センコウド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>キノウイガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1074,15 +1084,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1103,9 +1110,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1127,9 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1142,23 +1149,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1456,65 +1472,65 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1532,18 +1548,20 @@
         <v>13</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>45201</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14">
+      <c r="G4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12">
         <v>45201</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1561,18 +1579,20 @@
         <v>15</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>45203</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14">
+      <c r="G5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12">
         <v>45203</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1590,18 +1610,20 @@
         <v>18</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>45205</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14">
+      <c r="G6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12">
         <v>45205</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <v>0.8</v>
       </c>
     </row>
@@ -1619,16 +1641,20 @@
         <v>19</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>45210</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14">
+      <c r="G7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12">
         <v>45210</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1">
@@ -1644,16 +1670,20 @@
         <v>21</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>45212</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14">
+      <c r="G8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12">
         <v>45212</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
@@ -1669,148 +1699,152 @@
         <v>23</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>45215</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14">
+      <c r="G9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12">
         <v>45215</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="12">
+        <v>45194</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="26">
-        <v>45194</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="7" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="12">
+        <v>45196</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="26">
-        <v>45196</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E15" s="12">
+        <v>45198</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G15" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="26">
-        <v>45198</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
@@ -1835,37 +1869,37 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="10" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C4</f>
         <v>投稿一覧</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -1884,196 +1918,196 @@
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="13">
         <v>0.2</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="13">
         <v>0.2</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="13">
         <v>0.2</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="13">
         <v>0.2</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2090,38 +2124,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="10" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C5</f>
         <v>投稿作成</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -2140,192 +2174,192 @@
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="13">
         <v>0.5</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="13">
         <v>0.5</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7">
+      <c r="H6" s="6"/>
+      <c r="I6" s="13">
         <v>0.5</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7">
+      <c r="H7" s="6"/>
+      <c r="I7" s="13">
         <v>0.5</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2343,37 +2377,37 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="10" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C6</f>
         <v>投稿詳細閲覧</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -2392,196 +2426,196 @@
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="13">
         <v>0.5</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="13">
         <v>0.5</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="13">
         <v>0.5</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="13">
         <v>0.5</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2598,36 +2632,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="10" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C7</f>
         <v>カテゴリー</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -2646,186 +2682,186 @@
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2842,36 +2878,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="10" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C8</f>
         <v>投稿編集</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -2890,180 +2928,180 @@
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3080,36 +3118,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="20.69921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="4" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="10" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C9</f>
         <v>投稿削除</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3128,168 +3168,168 @@
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C0375-98D6-4411-8757-EB1B16271AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA6A493-08D3-2F4E-B64E-7F83A478BD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -1131,6 +1131,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,24 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,16 +1459,16 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1476,28 +1476,28 @@
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -1515,26 +1515,26 @@
       <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1654,9 +1654,11 @@
       <c r="J7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="K7" s="14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1685,7 +1687,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1714,39 +1716,39 @@
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1797,56 +1799,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="3:7" ht="40" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -1872,19 +1874,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -1901,36 +1903,36 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1939,17 +1941,17 @@
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -1971,7 +1973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -1993,7 +1995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2015,7 +2017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2037,7 +2039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2049,7 +2051,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2061,7 +2063,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2073,7 +2075,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2085,7 +2087,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2097,7 +2099,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2128,19 +2130,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2157,36 +2159,36 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2195,17 +2197,17 @@
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2227,7 +2229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2249,7 +2251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2269,7 +2271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2289,7 +2291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2301,7 +2303,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2313,7 +2315,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2325,7 +2327,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2337,7 +2339,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2349,7 +2351,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2380,19 +2382,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2409,36 +2411,36 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2447,17 +2449,17 @@
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2479,7 +2481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2501,7 +2503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2523,7 +2525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2545,7 +2547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2557,7 +2559,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2569,7 +2571,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2581,7 +2583,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2593,7 +2595,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2605,7 +2607,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2636,19 +2638,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2665,36 +2667,36 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2703,17 +2705,17 @@
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2731,7 +2733,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2749,7 +2751,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2767,7 +2769,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2785,7 +2787,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2803,7 +2805,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2815,7 +2817,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2827,7 +2829,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2839,7 +2841,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2851,7 +2853,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2882,19 +2884,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2911,36 +2913,36 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2949,17 +2951,17 @@
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2975,7 +2977,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2991,7 +2993,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3007,7 +3009,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3023,7 +3025,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3039,7 +3041,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3055,7 +3057,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3067,7 +3069,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3079,7 +3081,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3091,7 +3093,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3122,19 +3124,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3151,36 +3153,36 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -3189,17 +3191,17 @@
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3215,7 +3217,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3231,7 +3233,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3247,7 +3249,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3259,7 +3261,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3271,7 +3273,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3283,7 +3285,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3295,7 +3297,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3307,7 +3309,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3319,7 +3321,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA6A493-08D3-2F4E-B64E-7F83A478BD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E9D6E-BFF9-584D-9128-DFEB60FF02D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -941,6 +941,24 @@
     <rPh sb="50" eb="52">
       <t>キサイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施前</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施前</t>
+    <rPh sb="0" eb="1">
+      <t>ジッシマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1458,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1554,7 +1572,9 @@
       <c r="G4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="I4" s="12">
         <v>45201</v>
       </c>
@@ -1585,7 +1605,9 @@
       <c r="G5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="I5" s="12">
         <v>45203</v>
       </c>
@@ -1616,7 +1638,9 @@
       <c r="G6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="I6" s="12">
         <v>45205</v>
       </c>
@@ -1647,7 +1671,9 @@
       <c r="G7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="I7" s="12">
         <v>45210</v>
       </c>
@@ -1678,14 +1704,18 @@
       <c r="G8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="I8" s="12">
         <v>45212</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
@@ -1707,14 +1737,18 @@
       <c r="G9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="I9" s="12">
         <v>45215</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
     <row r="11" spans="1:11" ht="40" customHeight="1">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E9D6E-BFF9-584D-9128-DFEB60FF02D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1BEAB-E9C6-DB4A-99FF-F4A9BD351E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="81">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -959,6 +959,13 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1477,7 +1484,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1572,8 +1579,8 @@
       <c r="G4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>79</v>
+      <c r="H4" s="14">
+        <v>0.7</v>
       </c>
       <c r="I4" s="12">
         <v>45201</v>
@@ -1605,8 +1612,8 @@
       <c r="G5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>79</v>
+      <c r="H5" s="14">
+        <v>0.8</v>
       </c>
       <c r="I5" s="12">
         <v>45203</v>
@@ -1638,8 +1645,8 @@
       <c r="G6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>79</v>
+      <c r="H6" s="14">
+        <v>0.5</v>
       </c>
       <c r="I6" s="12">
         <v>45205</v>
@@ -1669,7 +1676,7 @@
         <v>45210</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>79</v>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1BEAB-E9C6-DB4A-99FF-F4A9BD351E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43983E2-4831-E149-89CF-AA6472F986EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1580,7 +1580,7 @@
         <v>75</v>
       </c>
       <c r="H4" s="14">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="12">
         <v>45201</v>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43983E2-4831-E149-89CF-AA6472F986EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E0A53D-1156-FF4E-B791-0EA3B245D6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="900" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="82">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -958,13 +958,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>齋藤</t>
     <rPh sb="0" eb="2">
       <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装前</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装前</t>
+    <rPh sb="0" eb="1">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1483,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1580,7 +1590,7 @@
         <v>75</v>
       </c>
       <c r="H4" s="14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I4" s="12">
         <v>45201</v>
@@ -1613,7 +1623,7 @@
         <v>75</v>
       </c>
       <c r="H5" s="14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I5" s="12">
         <v>45203</v>
@@ -1646,7 +1656,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="14">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I6" s="12">
         <v>45205</v>
@@ -1676,10 +1686,10 @@
         <v>45210</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="13" t="s">
         <v>79</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.95</v>
       </c>
       <c r="I7" s="12">
         <v>45210</v>
@@ -1712,7 +1722,7 @@
         <v>75</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="12">
         <v>45212</v>
@@ -1745,7 +1755,7 @@
         <v>75</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" s="12">
         <v>45215</v>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E0A53D-1156-FF4E-B791-0EA3B245D6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE71AA7C-471D-344C-99FA-2D59C6182D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="900" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="83">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -975,6 +975,13 @@
     <t>実装前</t>
     <rPh sb="0" eb="1">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="1">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1494,7 +1501,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1697,8 +1704,8 @@
       <c r="J7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="14">
-        <v>0.6</v>
+      <c r="K7" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.25" customHeight="1">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E0A53D-1156-FF4E-B791-0EA3B245D6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998E2415-3DF9-4724-AFAE-9E8DEE643C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="900" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
-    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId2"/>
-    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId3"/>
-    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId4"/>
-    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId5"/>
-    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId6"/>
-    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId7"/>
+    <sheet name="スプリントバックログ (第2スプリント)" sheetId="20" r:id="rId2"/>
+    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId3"/>
+    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId4"/>
+    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId5"/>
+    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId6"/>
+    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId7"/>
+    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -975,6 +977,122 @@
     <t>実装前</t>
     <rPh sb="0" eb="1">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿編集</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿保存</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿削除</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アカウントの投稿内容を編集する</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米倉</t>
+    <rPh sb="0" eb="2">
+      <t>ヨネクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村岡</t>
+    <rPh sb="0" eb="2">
+      <t>ムラオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人の投稿をお気に入りとして登録する</t>
+    <rPh sb="0" eb="2">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アカウントの投稿を削除する</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去の投稿とお気に入りの投稿を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1493,17 +1611,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1569,7 +1687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.25" customHeight="1">
+    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1602,7 +1720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.25" customHeight="1">
+    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1635,7 +1753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.25" customHeight="1">
+    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1668,7 +1786,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.25" customHeight="1">
+    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1701,7 +1819,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.25" customHeight="1">
+    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1734,7 +1852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.25" customHeight="1">
+    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1767,8 +1885,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -1782,7 +1900,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1816,7 +1934,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40" customHeight="1">
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1833,7 +1951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40" customHeight="1">
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1850,56 +1968,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40" customHeight="1">
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40" customHeight="1">
+    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40" customHeight="1">
+    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40" customHeight="1">
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40" customHeight="1">
+    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40" customHeight="1">
+    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40" customHeight="1">
+    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -1918,6 +2036,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" ht="42" customHeight="1">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="39" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="12">
+        <v>45236</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>45236</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="12">
+        <v>45236</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>45236</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="12">
+        <v>45236</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>45236</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="12">
+        <v>45236</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>45236</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E11:J11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LScrum1&amp;Cプロダクトバックログ&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -1925,19 +2401,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -1954,7 +2430,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -1970,7 +2446,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2002,7 +2478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2024,7 +2500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2046,7 +2522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2068,7 +2544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2090,7 +2566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2102,7 +2578,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2114,7 +2590,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2126,7 +2602,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2138,7 +2614,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2150,259 +2626,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C5</f>
-        <v>投稿作成</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2426,32 +2650,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ACE829-E4A2-4376-BA0D-D0F2E0135439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C6</f>
-        <v>投稿詳細閲覧</v>
+        <f>'スプリントバックログ (第1スプリント)'!C5</f>
+        <v>投稿作成</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -2462,7 +2686,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -2478,7 +2702,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2510,17 +2734,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I4" s="13">
         <v>0.5</v>
@@ -2532,17 +2756,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="G5" s="6" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I5" s="13">
         <v>0.5</v>
@@ -2554,18 +2778,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="13">
         <v>0.5</v>
       </c>
@@ -2576,18 +2798,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="13">
         <v>0.5</v>
       </c>
@@ -2598,7 +2818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2610,7 +2830,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2622,7 +2842,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2634,7 +2854,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2646,7 +2866,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2658,7 +2878,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2682,32 +2902,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ACE829-E4A2-4376-BA0D-D0F2E0135439}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C7</f>
-        <v>カテゴリー</v>
+        <f>'スプリントバックログ (第1スプリント)'!C6</f>
+        <v>投稿詳細閲覧</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -2718,7 +2938,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -2734,7 +2954,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2766,97 +2986,107 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.5</v>
+      </c>
       <c r="J4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="G5" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.5</v>
+      </c>
       <c r="J7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="G8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2868,7 +3098,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2880,7 +3110,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2892,7 +3122,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2904,7 +3134,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2928,32 +3158,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C8</f>
-        <v>投稿編集</v>
+        <f>'スプリントバックログ (第1スプリント)'!C7</f>
+        <v>カテゴリー</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -2964,7 +3194,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -2980,7 +3210,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3012,103 +3242,109 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="G6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="G8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="G9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3120,7 +3356,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3132,7 +3368,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3144,7 +3380,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3168,32 +3404,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C9</f>
-        <v>投稿削除</v>
+        <f>'スプリントバックログ (第1スプリント)'!C8</f>
+        <v>投稿編集</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -3204,7 +3440,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -3220,7 +3456,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3252,7 +3488,247 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C9</f>
+        <v>投稿削除</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3268,7 +3744,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3284,7 +3760,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3300,7 +3776,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3312,7 +3788,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3324,7 +3800,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3336,7 +3812,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3348,7 +3824,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3360,7 +3836,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3372,7 +3848,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,19 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998E2415-3DF9-4724-AFAE-9E8DEE643C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0521A4DC-1B81-4EA4-909F-464ED7ED7E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="20" r:id="rId2"/>
-    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId3"/>
-    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId4"/>
-    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId5"/>
-    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId6"/>
-    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId7"/>
-    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId8"/>
+    <sheet name="スプリント計画2（機能１）" sheetId="21" r:id="rId3"/>
+    <sheet name="スプリント計画2（機能２）" sheetId="22" r:id="rId4"/>
+    <sheet name="スプリント計画2（機能３）" sheetId="23" r:id="rId5"/>
+    <sheet name="スプリント計画2（機能４）" sheetId="24" r:id="rId6"/>
+    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId7"/>
+    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId8"/>
+    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId9"/>
+    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId10"/>
+    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId11"/>
+    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="93">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -2035,11 +2039,725 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C7</f>
+        <v>カテゴリー</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C8</f>
+        <v>投稿編集</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C9</f>
+        <v>投稿削除</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2394,6 +3112,934 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C4</f>
+        <v>投稿編集</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C5</f>
+        <v>投稿保存</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D32F4AF-EBA2-40DC-A345-A95D37BEFDCE}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C6</f>
+        <v>投稿削除</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CAE3-86B2-4518-B668-333B82AD8DA9}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C7</f>
+        <v>プロフィール</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -2649,7 +4295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -2901,7 +4547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ACE829-E4A2-4376-BA0D-D0F2E0135439}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3155,718 +4801,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C7</f>
-        <v>カテゴリー</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C8</f>
-        <v>投稿編集</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C9</f>
-        <v>投稿削除</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0521A4DC-1B81-4EA4-909F-464ED7ED7E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB504F80-DC9C-AB4F-862D-9E55EFB84F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="93">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1619,13 +1619,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1691,7 +1691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1889,8 +1889,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1972,56 +1972,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="3:7" ht="40" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -2043,23 +2043,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2140,9 +2140,11 @@
       <c r="J4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2158,9 +2160,11 @@
       <c r="J5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2176,9 +2180,11 @@
       <c r="J6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2194,9 +2200,11 @@
       <c r="J7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2212,9 +2220,11 @@
       <c r="J8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K8" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2226,7 +2236,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2238,7 +2248,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2250,7 +2260,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2262,7 +2272,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2293,19 +2303,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2332,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -2338,7 +2348,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2370,7 +2380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2386,7 +2396,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2402,7 +2412,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2418,7 +2428,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2434,7 +2444,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2450,7 +2460,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2466,7 +2476,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2478,7 +2488,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2490,7 +2500,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2502,7 +2512,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2533,19 +2543,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2562,7 +2572,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -2578,7 +2588,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2626,7 +2636,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2642,7 +2652,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2658,7 +2668,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2670,7 +2680,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2682,7 +2692,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2694,7 +2704,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2706,7 +2716,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2718,7 +2728,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2730,7 +2740,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2761,13 +2771,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2833,7 +2843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2866,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2899,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2932,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2965,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2978,7 +2988,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2991,8 +3001,8 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -3006,7 +3016,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -3023,77 +3033,77 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="3:7" ht="40" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -3119,19 +3129,19 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3148,7 +3158,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -3164,7 +3174,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3196,7 +3206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3212,7 +3222,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3228,7 +3238,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3244,7 +3254,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3260,7 +3270,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3272,7 +3282,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3284,7 +3294,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3296,7 +3306,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3308,7 +3318,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3320,7 +3330,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3351,19 +3361,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3380,7 +3390,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -3396,7 +3406,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3428,7 +3438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3444,7 +3454,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3460,7 +3470,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3476,7 +3486,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3492,7 +3502,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3504,7 +3514,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3516,7 +3526,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3528,7 +3538,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3540,7 +3550,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3552,7 +3562,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3583,19 +3593,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3612,7 +3622,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -3628,7 +3638,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3660,7 +3670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3676,7 +3686,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3692,7 +3702,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3708,7 +3718,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3724,7 +3734,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3736,7 +3746,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3748,7 +3758,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3760,7 +3770,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3772,7 +3782,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3784,7 +3794,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3811,23 +3821,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CAE3-86B2-4518-B668-333B82AD8DA9}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3844,7 +3854,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -3860,7 +3870,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3892,7 +3902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3908,7 +3918,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3924,7 +3934,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3940,7 +3950,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3956,7 +3966,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3968,7 +3978,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3980,7 +3990,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3992,7 +4002,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4004,7 +4014,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4016,7 +4026,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4047,19 +4057,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4076,7 +4086,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -4092,7 +4102,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4124,7 +4134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4146,7 +4156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4168,7 +4178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4190,7 +4200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4212,7 +4222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4224,7 +4234,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4236,7 +4246,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4248,7 +4258,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4260,7 +4270,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4272,7 +4282,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4303,19 +4313,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4332,7 +4342,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -4348,7 +4358,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4380,7 +4390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4402,7 +4412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4424,7 +4434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4444,7 +4454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4464,7 +4474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4476,7 +4486,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4488,7 +4498,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4500,7 +4510,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4512,7 +4522,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4524,7 +4534,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4555,19 +4565,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4584,7 +4594,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>33</v>
       </c>
@@ -4600,7 +4610,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4632,7 +4642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4654,7 +4664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4676,7 +4686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4698,7 +4708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4720,7 +4730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4732,7 +4742,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4744,7 +4754,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4756,7 +4766,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4768,7 +4778,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4780,7 +4790,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB504F80-DC9C-AB4F-862D-9E55EFB84F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01E573-2A43-584E-A0E4-593E911C2EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="93">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -2043,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3125,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3218,8 +3218,12 @@
       <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="13">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
@@ -3234,9 +3238,15 @@
       <c r="H5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
@@ -3250,8 +3260,12 @@
       <c r="H6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
@@ -3266,8 +3280,12 @@
       <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="40" customHeight="1">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01E573-2A43-584E-A0E4-593E911C2EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF98E42B-3D64-B448-8A33-50B2B973DB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="97">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1097,6 +1097,35 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境整備</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバーのリソースを統合</t>
+    <rPh sb="10" eb="12">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現スプリント
+終了後</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゲン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1241,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1332,6 +1361,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2767,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3034,11 +3066,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="40" customHeight="1">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
@@ -3125,7 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0521A4DC-1B81-4EA4-909F-464ED7ED7E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD902A3A-9AD7-4250-B1E3-B9D8AEB3088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="101">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1097,6 +1097,113 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBM関数</t>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力画面</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容を表示・内容を編集するためのファイルを作成</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容を表示する処理を作成</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容をアップデートする関数を作成</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け取り処理</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ファイルは色別</t>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け取ったデータを関数の引数に渡す処理を作成</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1142,7 +1249,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,6 +1271,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,7 +1360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1332,6 +1451,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2755,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3065,35 +3190,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -3115,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3142,7 +3239,9 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -3202,11 +3301,11 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
+      <c r="G4" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="12"/>
@@ -3218,11 +3317,11 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
+      <c r="G5" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="12"/>
@@ -3234,11 +3333,11 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
+      <c r="G6" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="12"/>
@@ -3250,11 +3349,11 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>38</v>
+      <c r="G7" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="12"/>
@@ -3266,8 +3365,12 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -3811,7 +3914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CAE3-86B2-4518-B668-333B82AD8DA9}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -4300,7 +4403,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -4552,7 +4655,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01E573-2A43-584E-A0E4-593E911C2EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441C99D1-D258-0345-82D5-A945A999E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="100">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1097,6 +1097,61 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースから削除</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面ファイルを作成</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未実施</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の投稿一覧に削除ボタンを作成</t>
+    <rPh sb="0" eb="2">
+      <t>ジブn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニティ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1615,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2043,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2767,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3125,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3218,12 +3273,8 @@
       <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="13">
-        <v>3</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
@@ -3238,15 +3289,9 @@
       <c r="H5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
@@ -3260,12 +3305,8 @@
       <c r="H6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="13">
-        <v>2</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
@@ -3280,12 +3321,8 @@
       <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13">
-        <v>2</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="40" customHeight="1">
@@ -3608,7 +3645,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3689,20 +3726,34 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="40" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
@@ -3710,12 +3761,8 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -3726,12 +3773,8 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -3742,12 +3785,8 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441C99D1-D258-0345-82D5-A945A999E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C26DA2-F349-594E-B285-49DDBFC3CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1980" yWindow="780" windowWidth="30660" windowHeight="19380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="102">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1101,57 +1101,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データベースから削除</t>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除画面ファイルを作成</t>
+    <t>環境整備</t>
     <rPh sb="0" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中川</t>
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバーのリソースを統合</t>
+    <rPh sb="10" eb="12">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
     <rPh sb="0" eb="2">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未実施</t>
-    <rPh sb="0" eb="3">
-      <t>ミジッセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除ボタン</t>
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現スプリント
+終了後</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゲン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力画面作成</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存画面作成</t>
     <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分の投稿一覧に削除ボタンを作成</t>
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ガメンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿保存画面ファイルを作成</t>
     <rPh sb="0" eb="2">
-      <t>ジブn</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1日</t>
-    <rPh sb="1" eb="2">
-      <t>ニティ</t>
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存する関数を作成</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全件取得関数とuser_idを紐つけ、引数を渡しデータを取得する処理を作成</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒモツケ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1296,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1359,6 +1404,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1688,28 +1736,28 @@
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -1950,14 +1998,14 @@
         <v>70</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
@@ -2098,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2132,20 +2180,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2388,20 +2436,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2628,20 +2676,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2822,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -2840,28 +2888,28 @@
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -3062,14 +3110,14 @@
         <v>70</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
@@ -3089,11 +3137,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="40" customHeight="1">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
@@ -3180,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3214,20 +3270,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -3273,8 +3329,12 @@
       <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="13">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
@@ -3289,9 +3349,15 @@
       <c r="H5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
@@ -3305,8 +3371,12 @@
       <c r="H6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
@@ -3321,8 +3391,12 @@
       <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="40" customHeight="1">
@@ -3410,6 +3484,238 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C5</f>
+        <v>投稿保存</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D32F4AF-EBA2-40DC-A345-A95D37BEFDCE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
@@ -3433,8 +3739,8 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第2スプリント)'!C5</f>
-        <v>投稿保存</v>
+        <f>'スプリントバックログ (第2スプリント)'!C6</f>
+        <v>投稿削除</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -3446,20 +3752,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -3553,240 +3859,6 @@
       <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D32F4AF-EBA2-40DC-A345-A95D37BEFDCE}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第2スプリント)'!C6</f>
-        <v>投稿削除</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -3912,20 +3984,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -4111,7 +4183,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4144,20 +4216,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -4198,7 +4270,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>46</v>
@@ -4400,20 +4472,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -4652,20 +4724,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD902A3A-9AD7-4250-B1E3-B9D8AEB3088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CCDE8D-2AEA-4D8A-AA37-9BF884103A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -1425,6 +1425,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1451,12 +1457,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1758,28 +1758,28 @@
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -2020,14 +2020,14 @@
         <v>70</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C12" s="15" t="s">
@@ -2202,20 +2202,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2448,20 +2448,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2688,20 +2688,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2882,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2900,28 +2900,28 @@
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -3122,14 +3122,14 @@
         <v>70</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C12" s="15" t="s">
@@ -3212,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="C1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3248,20 +3248,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -3301,7 +3301,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="23" t="s">
         <v>94</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -3317,7 +3317,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -3333,7 +3333,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="22" t="s">
         <v>98</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -3365,7 +3365,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="22" t="s">
         <v>61</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -3484,20 +3484,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -3716,20 +3716,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -3948,20 +3948,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -4180,20 +4180,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -4436,20 +4436,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -4688,20 +4688,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CCDE8D-2AEA-4D8A-AA37-9BF884103A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14F40F-6B28-490F-9B75-D186C717805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="99">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1029,20 +1029,6 @@
     <t>中川</t>
     <rPh sb="0" eb="2">
       <t>ナカガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>米倉</t>
-    <rPh sb="0" eb="2">
-      <t>ヨネクラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>村岡</t>
-    <rPh sb="0" eb="2">
-      <t>ムラオカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2882,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -2985,7 +2971,7 @@
         <v>45236</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K4" s="14">
         <v>0</v>
@@ -3002,7 +2988,7 @@
         <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="12">
@@ -3018,7 +3004,7 @@
         <v>45236</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K5" s="14">
         <v>0</v>
@@ -3035,7 +3021,7 @@
         <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12">
@@ -3051,7 +3037,7 @@
         <v>45236</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="K6" s="14">
         <v>0</v>
@@ -3068,14 +3054,14 @@
         <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12">
         <v>45236</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="H7" s="14">
         <v>0</v>
@@ -3084,7 +3070,7 @@
         <v>45236</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="K7" s="14">
         <v>0</v>
@@ -3213,7 +3199,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3240,7 +3226,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="G1" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -3302,10 +3288,10 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="12"/>
@@ -3321,7 +3307,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="12"/>
@@ -3334,7 +3320,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="G6" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>58</v>
@@ -3350,10 +3336,10 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="12"/>
@@ -3369,7 +3355,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CCDE8D-2AEA-4D8A-AA37-9BF884103A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222C0CB-2705-0947-99B3-7FEEFE1B7356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="101">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -950,20 +950,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実施前</t>
-    <rPh sb="0" eb="3">
-      <t>ジッシマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実施前</t>
-    <rPh sb="0" eb="1">
-      <t>ジッシマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>齋藤</t>
     <rPh sb="0" eb="2">
       <t>サイトウ</t>
@@ -971,20 +957,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実装前</t>
-    <rPh sb="0" eb="3">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実装前</t>
-    <rPh sb="0" eb="1">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿編集</t>
     <rPh sb="0" eb="4">
       <t>トウコウヘンシュウ</t>
@@ -1204,6 +1176,39 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次スプリント
+で実施</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次スプリント
+で実施</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="1">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1360,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1457,6 +1462,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1740,17 +1748,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1816,7 +1824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1849,7 +1857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1915,7 +1923,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1933,7 +1941,7 @@
         <v>45210</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" s="14">
         <v>0.95</v>
@@ -1948,7 +1956,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1968,8 +1976,8 @@
       <c r="G8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>80</v>
+      <c r="H8" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="I8" s="12">
         <v>45212</v>
@@ -1977,11 +1985,11 @@
       <c r="J8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="K8" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2001,8 +2009,8 @@
       <c r="G9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>81</v>
+      <c r="H9" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="I9" s="12">
         <v>45215</v>
@@ -2010,12 +2018,12 @@
       <c r="J9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K9" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -2029,7 +2037,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2063,7 +2071,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2080,7 +2088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2097,56 +2105,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="3:7" ht="40" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -2172,19 +2180,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2209,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -2217,7 +2225,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2267,7 +2275,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2285,7 +2293,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2303,7 +2311,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2321,7 +2329,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2339,7 +2347,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2351,7 +2359,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2363,7 +2371,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2375,7 +2383,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2387,7 +2395,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2418,19 +2426,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2447,7 +2455,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -2463,7 +2471,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2511,7 +2519,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2527,7 +2535,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2543,7 +2551,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2559,7 +2567,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2575,7 +2583,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2591,7 +2599,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2603,7 +2611,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2615,7 +2623,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2627,7 +2635,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2658,19 +2666,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2687,7 +2695,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -2703,7 +2711,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2735,7 +2743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2751,7 +2759,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2767,7 +2775,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2783,7 +2791,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2795,7 +2803,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2807,7 +2815,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2819,7 +2827,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2831,7 +2839,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2843,7 +2851,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2855,7 +2863,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2882,17 +2890,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A2" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2958,7 +2966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2966,10 +2974,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="12">
@@ -2978,20 +2986,20 @@
       <c r="G4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="14">
-        <v>0</v>
+      <c r="H4" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="I4" s="12">
         <v>45236</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2999,10 +3007,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="12">
@@ -3011,20 +3019,20 @@
       <c r="G5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="14">
-        <v>0</v>
+      <c r="H5" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="I5" s="12">
         <v>45236</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3032,32 +3040,32 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12">
         <v>45236</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="I6" s="12">
         <v>45236</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+        <v>85</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3065,10 +3073,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12">
@@ -3077,20 +3085,20 @@
       <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="14">
-        <v>0</v>
+      <c r="H7" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="I7" s="12">
         <v>45236</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+        <v>85</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3103,7 +3111,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3116,8 +3124,8 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -3131,7 +3139,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -3148,49 +3156,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -3212,23 +3220,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3240,14 +3248,14 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="G1" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -3263,7 +3271,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3295,23 +3303,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+        <v>91</v>
+      </c>
+      <c r="I4" s="13">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3321,45 +3335,63 @@
         <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+        <v>92</v>
+      </c>
+      <c r="I5" s="13">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="G6" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="I7" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3369,13 +3401,19 @@
         <v>61</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+        <v>96</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3387,7 +3425,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3399,7 +3437,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3411,7 +3449,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3423,7 +3461,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3454,19 +3492,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3483,7 +3521,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -3499,7 +3537,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3531,7 +3569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3547,7 +3585,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3563,7 +3601,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3579,7 +3617,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3595,7 +3633,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3607,7 +3645,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3619,7 +3657,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3631,7 +3669,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3643,7 +3681,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3655,7 +3693,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3686,19 +3724,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3715,7 +3753,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -3731,7 +3769,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3763,7 +3801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3779,7 +3817,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3795,7 +3833,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3811,7 +3849,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3827,7 +3865,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3839,7 +3877,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3851,7 +3889,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3863,7 +3901,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3875,7 +3913,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3887,7 +3925,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3918,19 +3956,19 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3947,7 +3985,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -3963,7 +4001,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3995,7 +4033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4011,7 +4049,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4027,7 +4065,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4043,7 +4081,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4059,7 +4097,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4071,7 +4109,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4083,7 +4121,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4095,7 +4133,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4107,7 +4145,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4119,7 +4157,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4150,19 +4188,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4179,7 +4217,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -4195,7 +4233,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4227,7 +4265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4249,7 +4287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4271,7 +4309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4293,7 +4331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4315,7 +4353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4327,7 +4365,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4339,7 +4377,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4351,7 +4389,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4363,7 +4401,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4375,7 +4413,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4406,19 +4444,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4435,7 +4473,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -4451,7 +4489,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4483,7 +4521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4505,7 +4543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4527,7 +4565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4547,7 +4585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4567,7 +4605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4579,7 +4617,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4591,7 +4629,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4603,7 +4641,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4615,7 +4653,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4627,7 +4665,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4658,19 +4696,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4687,7 +4725,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
@@ -4703,7 +4741,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4735,7 +4773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4757,7 +4795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4779,7 +4817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4801,7 +4839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4823,7 +4861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4835,7 +4873,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4847,7 +4885,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4859,7 +4897,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4871,7 +4909,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4883,7 +4921,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222C0CB-2705-0947-99B3-7FEEFE1B7356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5C0CE8-4B4B-5A4C-BE10-376E7FAA98CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="106">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1210,6 +1210,38 @@
     <rPh sb="0" eb="1">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未実施</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5日</t>
+    <rPh sb="3" eb="4">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1436,6 +1468,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1462,9 +1497,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1766,28 +1798,28 @@
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -1976,7 +2008,7 @@
       <c r="G8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="24" t="s">
         <v>98</v>
       </c>
       <c r="I8" s="12">
@@ -1985,7 +2017,7 @@
       <c r="J8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2009,7 +2041,7 @@
       <c r="G9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="24" t="s">
         <v>98</v>
       </c>
       <c r="I9" s="12">
@@ -2018,7 +2050,7 @@
       <c r="J9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="24" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2028,14 +2060,14 @@
         <v>70</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
@@ -2210,20 +2242,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2456,20 +2488,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2662,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -2696,20 +2728,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2755,9 +2787,15 @@
       <c r="H4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
@@ -2771,9 +2809,15 @@
       <c r="H5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
@@ -2787,9 +2831,15 @@
       <c r="H6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
@@ -2890,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
@@ -2908,28 +2958,28 @@
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -3130,14 +3180,14 @@
         <v>70</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
@@ -3220,7 +3270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -3256,20 +3306,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -3522,20 +3572,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -3754,20 +3804,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -3986,20 +4036,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -4218,20 +4268,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -4474,20 +4524,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -4726,20 +4776,20 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5C0CE8-4B4B-5A4C-BE10-376E7FAA98CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012AF32D-F674-4340-BE7F-FC34FFA1C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="104">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -998,27 +998,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中川</t>
-    <rPh sb="0" eb="2">
-      <t>ナカガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>米倉</t>
-    <rPh sb="0" eb="2">
-      <t>ヨネクラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>村岡</t>
-    <rPh sb="0" eb="2">
-      <t>ムラオカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>他人の投稿をお気に入りとして登録する</t>
     <rPh sb="0" eb="2">
       <t>タニン</t>
@@ -1242,6 +1221,10 @@
   </si>
   <si>
     <t>1日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1780,17 +1763,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1856,7 +1839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.25" customHeight="1">
+    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1889,7 +1872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.25" customHeight="1">
+    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1922,7 +1905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.25" customHeight="1">
+    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1955,7 +1938,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.25" customHeight="1">
+    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1988,7 +1971,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.25" customHeight="1">
+    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2009,7 +1992,7 @@
         <v>75</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I8" s="12">
         <v>45212</v>
@@ -2018,10 +2001,10 @@
         <v>52</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="40.25" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2042,7 +2025,7 @@
         <v>75</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I9" s="12">
         <v>45215</v>
@@ -2051,11 +2034,11 @@
         <v>52</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -2069,7 +2052,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2086,7 +2069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2103,7 +2086,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40" customHeight="1">
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2120,7 +2103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40" customHeight="1">
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2137,56 +2120,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40" customHeight="1">
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40" customHeight="1">
+    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40" customHeight="1">
+    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40" customHeight="1">
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40" customHeight="1">
+    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40" customHeight="1">
+    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40" customHeight="1">
+    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -2212,19 +2195,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2241,7 +2224,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2257,7 +2240,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2289,7 +2272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2307,7 +2290,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2325,7 +2308,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2343,7 +2326,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2361,7 +2344,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2379,7 +2362,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2391,7 +2374,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2403,7 +2386,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2415,7 +2398,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2427,7 +2410,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2458,19 +2441,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2487,7 +2470,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2503,7 +2486,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2535,7 +2518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2551,7 +2534,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2567,7 +2550,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2583,7 +2566,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2599,7 +2582,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2615,7 +2598,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2631,7 +2614,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2643,7 +2626,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2655,7 +2638,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2667,7 +2650,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2694,23 +2677,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2727,7 +2710,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2743,7 +2726,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +2758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2788,16 +2771,16 @@
         <v>64</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2810,16 +2793,16 @@
         <v>65</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K5" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2832,16 +2815,16 @@
         <v>66</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2853,7 +2836,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2865,7 +2848,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2877,7 +2860,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2889,7 +2872,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2901,7 +2884,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2913,7 +2896,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2940,17 +2923,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:J11"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3016,7 +2999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.25" customHeight="1">
+    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3034,22 +3017,22 @@
         <v>45236</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I4" s="12">
         <v>45236</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40.25" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3060,29 +3043,29 @@
         <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="12">
         <v>45236</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I5" s="12">
         <v>45236</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40.25" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3093,29 +3076,29 @@
         <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12">
         <v>45236</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I6" s="12">
         <v>45236</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40.25" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3126,29 +3109,29 @@
         <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12">
         <v>45236</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I7" s="12">
         <v>45236</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="40.25" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3161,7 +3144,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.25" customHeight="1">
+    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3174,8 +3157,8 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -3189,7 +3172,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -3206,49 +3189,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40" customHeight="1">
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40" customHeight="1">
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40" customHeight="1">
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40" customHeight="1">
+    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40" customHeight="1">
+    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -3270,23 +3253,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3298,14 +3281,14 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="G1" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3321,7 +3304,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3353,17 +3336,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I4" s="13">
         <v>3</v>
@@ -3372,10 +3355,10 @@
         <v>52</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3385,7 +3368,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I5" s="13">
         <v>2</v>
@@ -3397,14 +3380,14 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="G6" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>58</v>
@@ -3419,17 +3402,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I7" s="13">
         <v>1.5</v>
@@ -3441,7 +3424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3451,7 +3434,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I8" s="13">
         <v>1.5</v>
@@ -3463,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3475,7 +3458,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3487,7 +3470,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3499,7 +3482,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3511,7 +3494,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3538,23 +3521,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="74" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3571,7 +3554,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3587,7 +3570,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3619,7 +3602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3635,7 +3618,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3651,7 +3634,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3667,7 +3650,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3683,7 +3666,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3695,7 +3678,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3707,7 +3690,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3719,7 +3702,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3731,7 +3714,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3743,7 +3726,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3774,19 +3757,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3803,7 +3786,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3819,7 +3802,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3851,7 +3834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3867,7 +3850,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3883,7 +3866,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3899,7 +3882,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3915,7 +3898,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3927,7 +3910,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3939,7 +3922,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3951,7 +3934,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3963,7 +3946,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3975,7 +3958,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4003,22 +3986,22 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4035,7 +4018,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4051,7 +4034,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4083,7 +4066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4096,10 +4079,14 @@
         <v>46</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4112,10 +4099,12 @@
         <v>68</v>
       </c>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4128,10 +4117,12 @@
         <v>69</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4144,10 +4135,12 @@
         <v>51</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4159,7 +4152,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4171,7 +4164,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4183,7 +4176,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4195,7 +4188,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4207,7 +4200,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4238,19 +4231,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4267,7 +4260,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4283,7 +4276,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4315,7 +4308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4337,7 +4330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4359,7 +4352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4381,7 +4374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4403,7 +4396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4415,7 +4408,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4427,7 +4420,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4439,7 +4432,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4451,7 +4444,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4463,7 +4456,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4494,19 +4487,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4523,7 +4516,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4539,7 +4532,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4571,7 +4564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4593,7 +4586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4615,7 +4608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4635,7 +4628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4655,7 +4648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4667,7 +4660,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4679,7 +4672,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4691,7 +4684,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4703,7 +4696,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4715,7 +4708,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4746,19 +4739,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4775,7 +4768,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4791,7 +4784,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +4816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4845,7 +4838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4867,7 +4860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4889,7 +4882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4911,7 +4904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4923,7 +4916,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4935,7 +4928,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4947,7 +4940,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4959,7 +4952,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4971,7 +4964,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012AF32D-F674-4340-BE7F-FC34FFA1C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8760AF6-4AFA-3E43-9C4C-0A4681A53A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="103">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1202,13 +1202,6 @@
     <t>中川</t>
     <rPh sb="0" eb="1">
       <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未実施</t>
-    <rPh sb="0" eb="3">
-      <t>ミジッセィ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1767,13 +1760,13 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1839,7 +1832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1872,7 +1865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1905,7 +1898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1938,7 +1931,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1971,7 +1964,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2004,7 +1997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2037,8 +2030,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -2052,7 +2045,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2069,7 +2062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2086,7 +2079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2103,7 +2096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2120,56 +2113,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="3:7" ht="40" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -2195,19 +2188,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2217,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2240,7 +2233,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2272,7 +2265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2290,7 +2283,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2308,7 +2301,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2326,7 +2319,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2344,7 +2337,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2362,7 +2355,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2374,7 +2367,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2386,7 +2379,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2398,7 +2391,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2410,7 +2403,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2441,19 +2434,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2463,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2486,7 +2479,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2534,7 +2527,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2550,7 +2543,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2566,7 +2559,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2582,7 +2575,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2598,7 +2591,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2614,7 +2607,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2626,7 +2619,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2638,7 +2631,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2650,7 +2643,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2677,23 +2670,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2710,7 +2703,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2726,7 +2719,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2758,7 +2751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2771,7 +2764,7 @@
         <v>64</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>98</v>
@@ -2780,7 +2773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2793,16 +2786,16 @@
         <v>65</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K5" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2815,16 +2808,16 @@
         <v>66</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K6" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2836,7 +2829,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2848,7 +2841,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2860,7 +2853,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2872,7 +2865,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2884,7 +2877,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2896,7 +2889,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2923,17 +2916,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2999,7 +2992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3017,7 +3010,7 @@
         <v>45236</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>94</v>
@@ -3032,7 +3025,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3050,7 +3043,7 @@
         <v>45236</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>94</v>
@@ -3065,7 +3058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3083,22 +3076,22 @@
         <v>45236</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
       </c>
       <c r="I6" s="12">
         <v>45236</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3131,7 +3124,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3144,7 +3137,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3157,8 +3150,8 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -3172,7 +3165,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -3189,49 +3182,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -3257,19 +3250,19 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3288,7 +3281,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3304,7 +3297,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3336,7 +3329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3358,7 +3351,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3380,7 +3373,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3402,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3424,7 +3417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3446,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3458,7 +3451,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3470,7 +3463,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3482,7 +3475,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3494,7 +3487,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3525,19 +3518,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3554,7 +3547,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3570,7 +3563,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3602,7 +3595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3618,7 +3611,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3634,7 +3627,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3650,7 +3643,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3666,7 +3659,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3678,7 +3671,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3690,7 +3683,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3702,7 +3695,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3714,7 +3707,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3726,7 +3719,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3757,19 +3750,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3786,7 +3779,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3802,7 +3795,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3834,7 +3827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3850,7 +3843,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3866,7 +3859,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3882,7 +3875,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3898,7 +3891,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3910,7 +3903,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3922,7 +3915,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3934,7 +3927,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3946,7 +3939,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3958,7 +3951,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3989,19 +3982,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4018,7 +4011,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4034,7 +4027,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4066,7 +4059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4086,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4104,7 +4097,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4122,7 +4115,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4140,7 +4133,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4152,7 +4145,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4164,7 +4157,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4176,7 +4169,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4188,7 +4181,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4200,7 +4193,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4231,19 +4224,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4260,7 +4253,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4276,7 +4269,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4308,7 +4301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4330,7 +4323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4352,7 +4345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4374,7 +4367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4396,7 +4389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4408,7 +4401,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4420,7 +4413,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4432,7 +4425,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4444,7 +4437,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4456,7 +4449,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4487,19 +4480,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4516,7 +4509,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4532,7 +4525,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4564,7 +4557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4586,7 +4579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4608,7 +4601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4628,7 +4621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4648,7 +4641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4660,7 +4653,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4672,7 +4665,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4684,7 +4677,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4696,7 +4689,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4708,7 +4701,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4739,19 +4732,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4768,7 +4761,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4784,7 +4777,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4816,7 +4809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4838,7 +4831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4860,7 +4853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4882,7 +4875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4904,7 +4897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4916,7 +4909,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4928,7 +4921,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4940,7 +4933,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4952,7 +4945,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4964,7 +4957,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8760AF6-4AFA-3E43-9C4C-0A4681A53A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56313B1A-6A54-DF4D-A909-6B6A3ED8B999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="780" windowWidth="28800" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="108">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1218,6 +1218,50 @@
   </si>
   <si>
     <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存画面ファイルを作成</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツリョクガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存画面作成</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ガメンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存する関数を作成</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2670,7 +2714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -3246,7 +3290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -3514,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3602,13 +3646,15 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
@@ -3621,10 +3667,12 @@
         <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1">
@@ -3640,7 +3688,9 @@
         <v>69</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
@@ -3656,7 +3706,9 @@
         <v>51</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="40" customHeight="1">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56313B1A-6A54-DF4D-A909-6B6A3ED8B999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251368C8-2807-F340-AD5F-259C4357728A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="780" windowWidth="28800" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3559,7 +3559,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3651,7 +3651,9 @@
       <c r="H4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="13">
+        <v>2</v>
+      </c>
       <c r="J4" s="13" t="s">
         <v>106</v>
       </c>
@@ -3669,7 +3671,9 @@
       <c r="H5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="13">
+        <v>2</v>
+      </c>
       <c r="J5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3687,7 +3691,9 @@
       <c r="H6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
       <c r="J6" s="13" t="s">
         <v>106</v>
       </c>
@@ -3705,7 +3711,9 @@
       <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
       <c r="J7" s="13" t="s">
         <v>75</v>
       </c>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251368C8-2807-F340-AD5F-259C4357728A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5342B62-981D-4A48-92E1-FDDA36DBA016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="780" windowWidth="28800" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16000" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="108">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -2714,7 +2714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2857,8 +2857,8 @@
       <c r="J6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="14">
-        <v>0.5</v>
+      <c r="K6" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
@@ -3558,7 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="74" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="74" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012AF32D-F674-4340-BE7F-FC34FFA1C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63DB87A-8B53-487E-934B-F7BCB6721EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7392" yWindow="0" windowWidth="15744" windowHeight="13056" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="114">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1225,6 +1225,133 @@
   </si>
   <si>
     <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile.php作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersからuserを取得する関数を作成</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user取得関数に引数を渡しデータを取得する処理を作成</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したuserを出力する処理を作成</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user取得処理</t>
+    <rPh sb="4" eb="8">
+      <t>シュトクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user出力処理</t>
+    <rPh sb="4" eb="8">
+      <t>シュツリョクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my_favoritesを取得する関数を作成</t>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my_postsを取得する関数を作成</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETによる場合分けでpostsにデータを取得する処理を作成</t>
+    <rPh sb="6" eb="9">
+      <t>バアイワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postsを一覧で出力する処理を作成</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2923,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3985,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CAE3-86B2-4518-B668-333B82AD8DA9}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -4073,12 +4200,14 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="13">
+        <v>0.2</v>
+      </c>
       <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
@@ -4096,13 +4225,17 @@
         <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
@@ -4111,16 +4244,20 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="G6" s="6" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
@@ -4129,16 +4266,20 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.5</v>
+      </c>
       <c r="J7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
@@ -4146,11 +4287,21 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="G8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
@@ -4158,11 +4309,21 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
@@ -4170,11 +4331,21 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
@@ -4182,11 +4353,21 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63DB87A-8B53-487E-934B-F7BCB6721EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02432778-DD40-6E4A-A3A8-89E398E81881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7392" yWindow="0" windowWidth="15744" windowHeight="13056" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7400" yWindow="500" windowWidth="15740" windowHeight="13060" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="113">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1202,13 +1202,6 @@
     <t>中川</t>
     <rPh sb="0" eb="1">
       <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未実施</t>
-    <rPh sb="0" eb="3">
-      <t>ミジッセィ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1894,13 +1887,13 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1966,7 +1959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1999,7 +1992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2032,7 +2025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2065,7 +2058,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2098,7 +2091,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2131,7 +2124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2164,8 +2157,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -2179,7 +2172,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2213,7 +2206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2230,7 +2223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2247,56 +2240,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="3:7" ht="40" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -2322,19 +2315,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2351,7 +2344,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2367,7 +2360,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2399,7 +2392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2417,7 +2410,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2435,7 +2428,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2453,7 +2446,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2471,7 +2464,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2489,7 +2482,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2501,7 +2494,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2513,7 +2506,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2525,7 +2518,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2537,7 +2530,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2568,19 +2561,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2597,7 +2590,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2613,7 +2606,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2645,7 +2638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2661,7 +2654,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2677,7 +2670,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2693,7 +2686,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2709,7 +2702,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2725,7 +2718,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2741,7 +2734,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2753,7 +2746,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2765,7 +2758,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2777,7 +2770,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2804,23 +2797,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2837,7 +2830,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2853,7 +2846,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2885,7 +2878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2898,7 +2891,7 @@
         <v>64</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>98</v>
@@ -2907,7 +2900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2920,16 +2913,16 @@
         <v>65</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="K5" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2942,16 +2935,16 @@
         <v>66</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2963,7 +2956,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2975,7 +2968,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2987,7 +2980,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2999,7 +2992,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3011,7 +3004,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3023,7 +3016,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3054,13 +3047,13 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3126,7 +3119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3144,7 +3137,7 @@
         <v>45236</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>94</v>
@@ -3159,7 +3152,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3177,7 +3170,7 @@
         <v>45236</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>94</v>
@@ -3192,7 +3185,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3210,7 +3203,7 @@
         <v>45236</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>94</v>
@@ -3219,13 +3212,13 @@
         <v>45236</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3258,7 +3251,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3271,7 +3264,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3284,8 +3277,8 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -3299,7 +3292,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -3316,49 +3309,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -3384,19 +3377,19 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3415,7 +3408,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3431,7 +3424,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3463,7 +3456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3485,7 +3478,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3507,7 +3500,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3529,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3551,7 +3544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3573,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3585,7 +3578,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3597,7 +3590,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3609,7 +3602,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3621,7 +3614,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3652,19 +3645,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +3674,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3697,7 +3690,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +3722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3745,7 +3738,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3761,7 +3754,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3777,7 +3770,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3793,7 +3786,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3805,7 +3798,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3817,7 +3810,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3829,7 +3822,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3841,7 +3834,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3853,7 +3846,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3884,19 +3877,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3913,7 +3906,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3929,7 +3922,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3961,7 +3954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3977,7 +3970,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3993,7 +3986,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4009,7 +4002,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4025,7 +4018,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4037,7 +4030,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4049,7 +4042,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4061,7 +4054,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4073,7 +4066,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4085,7 +4078,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4112,23 +4105,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CAE3-86B2-4518-B668-333B82AD8DA9}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="74" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4145,7 +4138,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4161,7 +4154,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4193,14 +4186,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>46</v>
@@ -4215,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4225,7 +4218,7 @@
         <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="13">
         <v>0.5</v>
@@ -4237,17 +4230,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="G6" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I6" s="13">
         <v>0.5</v>
@@ -4259,17 +4252,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="13">
         <v>0.5</v>
@@ -4281,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4291,7 +4284,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I8" s="13">
         <v>0.5</v>
@@ -4303,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4313,7 +4306,7 @@
         <v>40</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="13">
         <v>0.5</v>
@@ -4325,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4335,7 +4328,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I10" s="13">
         <v>0.5</v>
@@ -4347,7 +4340,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4357,7 +4350,7 @@
         <v>38</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I11" s="13">
         <v>0.5</v>
@@ -4369,7 +4362,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4381,7 +4374,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4412,19 +4405,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4441,7 +4434,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4457,7 +4450,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4489,7 +4482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4511,7 +4504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4533,7 +4526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4555,7 +4548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4577,7 +4570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4589,7 +4582,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4601,7 +4594,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4613,7 +4606,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4625,7 +4618,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4637,7 +4630,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4668,19 +4661,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4697,7 +4690,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4713,7 +4706,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4745,7 +4738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4767,7 +4760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4789,7 +4782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4809,7 +4802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4829,7 +4822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4841,7 +4834,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4853,7 +4846,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4865,7 +4858,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4877,7 +4870,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4889,7 +4882,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4920,19 +4913,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4949,7 +4942,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4965,7 +4958,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4997,7 +4990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5019,7 +5012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5041,7 +5034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5063,7 +5056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5085,7 +5078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5097,7 +5090,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5109,7 +5102,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5121,7 +5114,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5133,7 +5126,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5145,7 +5138,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02432778-DD40-6E4A-A3A8-89E398E81881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914EED06-7483-9F4B-BAC6-437B446A8CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="500" windowWidth="15740" windowHeight="13060" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="113">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -2797,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="74" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="74" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -3043,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3181,8 +3181,8 @@
       <c r="J5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>94</v>
+      <c r="K5" s="14">
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.25" customHeight="1">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914EED06-7483-9F4B-BAC6-437B446A8CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1318C24C-A58C-0741-B71F-8D57235FD82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="116">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1344,6 +1344,27 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3043,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3170,10 +3191,10 @@
         <v>45236</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>94</v>
+        <v>113</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.8</v>
       </c>
       <c r="I5" s="12">
         <v>45236</v>
@@ -3212,7 +3233,7 @@
         <v>45236</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>94</v>
@@ -3373,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -3641,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3734,9 +3755,15 @@
       <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="13">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
@@ -3750,9 +3777,15 @@
       <c r="H5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="13">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
@@ -3766,9 +3799,15 @@
       <c r="H6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="I6" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
@@ -3782,9 +3821,15 @@
       <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="I7" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1318C24C-A58C-0741-B71F-8D57235FD82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CAE8CB-4D7F-774A-BD2F-A3E74898BE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3663,7 +3663,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CAE8CB-4D7F-774A-BD2F-A3E74898BE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874B13C0-275C-0F40-9865-C6F3486F6444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="115">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1159,13 +1159,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未入力</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>次スプリント
 で実施</t>
     <rPh sb="0" eb="1">
@@ -1217,10 +1210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>profile.php作成</t>
     <rPh sb="11" eb="13">
       <t>サクセイ</t>
@@ -1365,6 +1354,13 @@
     <t>中村</t>
     <rPh sb="0" eb="2">
       <t>ナカムル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒見</t>
+    <rPh sb="0" eb="2">
+      <t>サケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2133,7 +2129,7 @@
         <v>75</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="12">
         <v>45212</v>
@@ -2142,7 +2138,7 @@
         <v>52</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="40.25" customHeight="1">
@@ -2166,7 +2162,7 @@
         <v>75</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9" s="12">
         <v>45215</v>
@@ -2175,7 +2171,7 @@
         <v>52</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
@@ -2912,10 +2908,10 @@
         <v>64</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>32</v>
@@ -2934,10 +2930,10 @@
         <v>65</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>32</v>
@@ -2956,13 +2952,13 @@
         <v>66</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
@@ -3064,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3157,11 +3153,11 @@
       <c r="F4" s="12">
         <v>45236</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>94</v>
+      <c r="G4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.95</v>
       </c>
       <c r="I4" s="12">
         <v>45236</v>
@@ -3169,8 +3165,8 @@
       <c r="J4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>94</v>
+      <c r="K4" s="14">
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="40.25" customHeight="1">
@@ -3191,7 +3187,7 @@
         <v>45236</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H5" s="14">
         <v>0.8</v>
@@ -3224,19 +3220,19 @@
         <v>45236</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I6" s="12">
         <v>45236</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.25" customHeight="1">
@@ -3260,7 +3256,7 @@
         <v>77</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="I7" s="12">
         <v>45236</v>
@@ -3496,7 +3492,7 @@
         <v>52</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
@@ -3662,7 +3658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -3759,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K4" s="14">
         <v>0.8</v>
@@ -3781,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K5" s="14">
         <v>0.8</v>
@@ -3803,7 +3799,7 @@
         <v>1.5</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K6" s="14">
         <v>0.8</v>
@@ -3825,7 +3821,7 @@
         <v>1.5</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K7" s="14">
         <v>0.8</v>
@@ -4238,7 +4234,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="G4" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>46</v>
@@ -4263,7 +4259,7 @@
         <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I5" s="13">
         <v>0.5</v>
@@ -4282,10 +4278,10 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="G6" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I6" s="13">
         <v>0.5</v>
@@ -4304,10 +4300,10 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="G7" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I7" s="13">
         <v>0.5</v>
@@ -4329,7 +4325,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I8" s="13">
         <v>0.5</v>
@@ -4351,7 +4347,7 @@
         <v>40</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I9" s="13">
         <v>0.5</v>
@@ -4373,7 +4369,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I10" s="13">
         <v>0.5</v>
@@ -4395,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I11" s="13">
         <v>0.5</v>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874B13C0-275C-0F40-9865-C6F3486F6444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F7A73B-88F7-C540-8152-3861ED2EFBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3061,7 +3061,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3190,7 +3190,7 @@
         <v>111</v>
       </c>
       <c r="H5" s="14">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I5" s="12">
         <v>45236</v>
@@ -3199,7 +3199,7 @@
         <v>75</v>
       </c>
       <c r="K5" s="14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.25" customHeight="1">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F7A73B-88F7-C540-8152-3861ED2EFBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E0665C-96EC-1149-965A-C57D03E6C59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3060,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,27 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E0665C-96EC-1149-965A-C57D03E6C59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DE0461-272A-D148-B371-648B48DBF94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="20" r:id="rId2"/>
-    <sheet name="スプリント計画2（機能１）" sheetId="21" r:id="rId3"/>
-    <sheet name="スプリント計画2（機能２）" sheetId="22" r:id="rId4"/>
-    <sheet name="スプリント計画2（機能３）" sheetId="23" r:id="rId5"/>
-    <sheet name="スプリント計画2（機能４）" sheetId="24" r:id="rId6"/>
-    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId7"/>
-    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId8"/>
-    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId9"/>
-    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId10"/>
-    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId11"/>
-    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId12"/>
+    <sheet name="スプリントバックログ (第3スプリント)" sheetId="25" r:id="rId3"/>
+    <sheet name="スプリント計画2（機能１）" sheetId="21" r:id="rId4"/>
+    <sheet name="スプリント計画2（機能２）" sheetId="22" r:id="rId5"/>
+    <sheet name="スプリント計画2（機能３）" sheetId="23" r:id="rId6"/>
+    <sheet name="スプリント計画2（機能４）" sheetId="24" r:id="rId7"/>
+    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId8"/>
+    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId9"/>
+    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId10"/>
+    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId11"/>
+    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId12"/>
+    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'スプリントバックログ (第3スプリント)'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="122">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1362,6 +1364,58 @@
     <rPh sb="0" eb="2">
       <t>サケ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自アカウントにログインする</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規のアカウントを登録する</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方</t>
+    <rPh sb="0" eb="1">
+      <t>ツカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取扱説明ページの作成</t>
+    <rPh sb="0" eb="2">
+      <t>トリアツカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1900,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -2325,6 +2379,262 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ACE829-E4A2-4376-BA0D-D0F2E0135439}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C6</f>
+        <v>投稿詳細閲覧</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -2570,7 +2880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -2810,11 +3120,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -3060,7 +3370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -3387,6 +3697,298 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" ht="42" customHeight="1">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="39" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="12">
+        <v>45236</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="12">
+        <v>45236</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="12">
+        <v>45236</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12">
+        <v>45236</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="12">
+        <v>45236</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="12">
+        <v>45236</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="C11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="C12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="40" customHeight="1">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="40" customHeight="1">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="40" customHeight="1">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="3:7" ht="40" customHeight="1">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="3:7" ht="40" customHeight="1">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="3:7" ht="40" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E11:J11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LScrum1&amp;Cプロダクトバックログ&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3654,7 +4256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3910,7 +4512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D32F4AF-EBA2-40DC-A345-A95D37BEFDCE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4142,7 +4744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CAE3-86B2-4518-B668-333B82AD8DA9}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4438,7 +5040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4694,7 +5296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4944,260 +5546,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ACE829-E4A2-4376-BA0D-D0F2E0135439}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C6</f>
-        <v>投稿詳細閲覧</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DE0461-272A-D148-B371-648B48DBF94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAFFAEB-B3A7-484A-A8B1-D575FC6C2CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="122">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -3700,8 +3700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3848,7 +3848,9 @@
       <c r="I6" s="12">
         <v>45236</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="K6" s="14" t="s">
         <v>121</v>
       </c>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAFFAEB-B3A7-484A-A8B1-D575FC6C2CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B200D6-1A35-6F45-BEBB-F93618611D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="125">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1415,7 +1415,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　中川</t>
+    <rPh sb="2" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バック、　　フロント結合</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3700,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3789,16 +3804,22 @@
       <c r="D4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F4" s="12">
         <v>45236</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="H4" s="14"/>
       <c r="I4" s="12">
         <v>45236</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" ht="40.25" customHeight="1">
@@ -3814,16 +3835,22 @@
       <c r="D5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F5" s="12">
         <v>45236</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="H5" s="14"/>
       <c r="I5" s="12">
         <v>45236</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="40.25" customHeight="1">
@@ -3843,16 +3870,18 @@
       <c r="F6" s="12">
         <v>45236</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="H6" s="14"/>
       <c r="I6" s="12">
         <v>45236</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.25" customHeight="1">
@@ -3862,7 +3891,9 @@
       <c r="B7" s="1">
         <v>12</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="12"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B200D6-1A35-6F45-BEBB-F93618611D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F754F3ED-2C5B-D443-9AC4-161F69B902C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="125">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -3715,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3813,14 +3813,18 @@
       <c r="G4" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="12">
         <v>45236</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
@@ -3844,14 +3848,18 @@
       <c r="G5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="I5" s="12">
         <v>45236</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
@@ -3873,7 +3881,9 @@
       <c r="G6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" s="12">
         <v>45236</v>
       </c>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,24 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F754F3ED-2C5B-D443-9AC4-161F69B902C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DFC57F-2752-2E4F-9252-F8C9FD0A6FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="20" r:id="rId2"/>
     <sheet name="スプリントバックログ (第3スプリント)" sheetId="25" r:id="rId3"/>
-    <sheet name="スプリント計画2（機能１）" sheetId="21" r:id="rId4"/>
-    <sheet name="スプリント計画2（機能２）" sheetId="22" r:id="rId5"/>
-    <sheet name="スプリント計画2（機能３）" sheetId="23" r:id="rId6"/>
-    <sheet name="スプリント計画2（機能４）" sheetId="24" r:id="rId7"/>
-    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId8"/>
-    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId9"/>
-    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId10"/>
-    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId11"/>
-    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId12"/>
-    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId13"/>
+    <sheet name="スプリント計画3（機能１）" sheetId="26" r:id="rId4"/>
+    <sheet name="スプリント計画3（機能２）" sheetId="27" r:id="rId5"/>
+    <sheet name="スプリント計画2（機能１）" sheetId="21" r:id="rId6"/>
+    <sheet name="スプリント計画2（機能２）" sheetId="22" r:id="rId7"/>
+    <sheet name="スプリント計画2（機能３）" sheetId="23" r:id="rId8"/>
+    <sheet name="スプリント計画2（機能４）" sheetId="24" r:id="rId9"/>
+    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId10"/>
+    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId11"/>
+    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId12"/>
+    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId13"/>
+    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId14"/>
+    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="125">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -2394,6 +2396,514 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C4</f>
+        <v>投稿一覧</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C5</f>
+        <v>投稿作成</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ACE829-E4A2-4376-BA0D-D0F2E0135439}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -2649,7 +3159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -2895,7 +3405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3135,7 +3645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3715,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4032,6 +4542,480 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A720D-9B7C-E54A-9628-BDBC0D0FC280}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB37874F-6B9F-8E4A-871B-FF93100ED50C}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4299,7 +5283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4555,7 +5539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D32F4AF-EBA2-40DC-A345-A95D37BEFDCE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4787,7 +5771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CAE3-86B2-4518-B668-333B82AD8DA9}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -5081,512 +6065,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C4</f>
-        <v>投稿一覧</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C5</f>
-        <v>投稿作成</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DFC57F-2752-2E4F-9252-F8C9FD0A6FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C17635F-8CF8-0E44-9472-85C1FD539576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4226,7 +4226,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C17635F-8CF8-0E44-9472-85C1FD539576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFEAF3C-D703-A54B-90FD-738EBC34BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="129">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1397,30 +1397,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使い方</t>
-    <rPh sb="0" eb="1">
-      <t>ツカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取扱説明ページの作成</t>
-    <rPh sb="0" eb="2">
-      <t>トリアツカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1433,6 +1409,39 @@
   </si>
   <si>
     <t>バック、　　フロント結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hometown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Commit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の修正</t>
+  </si>
+  <si>
+    <t>画面の修正</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4225,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4315,7 +4324,7 @@
         <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F4" s="12">
         <v>45236</v>
@@ -4350,13 +4359,13 @@
         <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F5" s="12">
         <v>45236</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>96</v>
@@ -4365,10 +4374,10 @@
         <v>45236</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.25" customHeight="1">
@@ -4379,30 +4388,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="12">
-        <v>45236</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="12">
-        <v>45236</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>122</v>
-      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
@@ -4412,9 +4409,11 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4424,10 +4423,18 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="40.25" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
@@ -4437,10 +4444,18 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="40.25" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
@@ -4449,7 +4464,27 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="40.25" customHeight="1">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
     <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DE0461-272A-D148-B371-648B48DBF94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B2541D-B8E8-D742-967E-0BE0B6684DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,16 +11,18 @@
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="20" r:id="rId2"/>
     <sheet name="スプリントバックログ (第3スプリント)" sheetId="25" r:id="rId3"/>
-    <sheet name="スプリント計画2（機能１）" sheetId="21" r:id="rId4"/>
-    <sheet name="スプリント計画2（機能２）" sheetId="22" r:id="rId5"/>
-    <sheet name="スプリント計画2（機能３）" sheetId="23" r:id="rId6"/>
-    <sheet name="スプリント計画2（機能４）" sheetId="24" r:id="rId7"/>
-    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId8"/>
-    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId9"/>
-    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId10"/>
-    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId11"/>
-    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId12"/>
-    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId13"/>
+    <sheet name="スプリント計画3（機能１）" sheetId="26" r:id="rId4"/>
+    <sheet name="スプリント計画3（機能２）" sheetId="27" r:id="rId5"/>
+    <sheet name="スプリント計画2（機能１）" sheetId="21" r:id="rId6"/>
+    <sheet name="スプリント計画2（機能２）" sheetId="22" r:id="rId7"/>
+    <sheet name="スプリント計画2（機能３）" sheetId="23" r:id="rId8"/>
+    <sheet name="スプリント計画2（機能４）" sheetId="24" r:id="rId9"/>
+    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId10"/>
+    <sheet name="スプリント計画（機能２）" sheetId="15" r:id="rId11"/>
+    <sheet name="スプリント計画（機能３）" sheetId="16" r:id="rId12"/>
+    <sheet name="スプリント計画（機能４）" sheetId="17" r:id="rId13"/>
+    <sheet name="スプリント計画（機能５）" sheetId="18" r:id="rId14"/>
+    <sheet name="スプリント計画（機能６）" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="133">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1395,27 +1397,82 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使い方</t>
+    <t>　　中川</t>
+    <rPh sb="2" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バック、　　フロント結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hometown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の修正</t>
+  </si>
+  <si>
+    <t>画面の修正</t>
+    <rPh sb="0" eb="2">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川</t>
     <rPh sb="0" eb="1">
-      <t>ツカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取扱説明ページの作成</t>
+      <t>ナカガウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックの処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斎藤</t>
     <rPh sb="0" eb="2">
-      <t>トリアツカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web公開</t>
+    <rPh sb="3" eb="5">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/11/31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2379,6 +2436,514 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C4</f>
+        <v>投稿一覧</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>'スプリントバックログ (第1スプリント)'!C5</f>
+        <v>投稿作成</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09ACE829-E4A2-4376-BA0D-D0F2E0135439}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -2634,7 +3199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C02F2-1665-45C2-B59D-128890A534BE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -2880,7 +3445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1EB55C-44FA-4BCA-99A3-6897D77E7C80}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3120,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061239E-47A4-4D88-B572-9249F53826BA}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3701,7 +4266,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -3789,17 +4354,27 @@
       <c r="D4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="12">
-        <v>45236</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="12">
         <v>45236</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14"/>
+      <c r="J4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
@@ -3814,12 +4389,18 @@
       <c r="D5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="12">
-        <v>45236</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
+      <c r="E5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="I5" s="12">
         <v>45236</v>
       </c>
@@ -3834,24 +4415,22 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12">
-        <v>45236</v>
-      </c>
-      <c r="G6" s="12"/>
+        <v>45268</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="12">
-        <v>45236</v>
-      </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
@@ -3860,10 +4439,16 @@
       <c r="B7" s="1">
         <v>12</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12">
+        <v>45268</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
@@ -3871,32 +4456,76 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="40.25" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="12">
+        <v>45268</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="40.25" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12">
+        <v>45268</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="40.25" customHeight="1">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="12">
+        <v>45276</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
     <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
@@ -3989,6 +4618,480 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A720D-9B7C-E54A-9628-BDBC0D0FC280}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB37874F-6B9F-8E4A-871B-FF93100ED50C}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="40" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="40" customHeight="1">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="40" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="40" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="40" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="40" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="40" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6072B64B-D2F6-4DA9-BECD-839E737E2F8B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4256,7 +5359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97026F75-9CB2-4A97-A448-9279D1A016D4}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4512,7 +5615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D32F4AF-EBA2-40DC-A345-A95D37BEFDCE}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4744,7 +5847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CAE3-86B2-4518-B668-333B82AD8DA9}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -5038,512 +6141,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C4</f>
-        <v>投稿一覧</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0F703-6766-41A1-BBE3-1FC19C731D8C}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>'スプリントバックログ (第1スプリント)'!C5</f>
-        <v>投稿作成</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B2541D-B8E8-D742-967E-0BE0B6684DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F11282D-BFBB-1348-AADA-25C8A5B72B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="132">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1466,13 +1466,6 @@
   </si>
   <si>
     <t>2023/11/31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未定</t>
-    <rPh sb="0" eb="2">
-      <t>ミテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4266,7 +4259,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4449,7 +4442,9 @@
       <c r="F7" s="12">
         <v>45268</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -4497,7 +4492,9 @@
       <c r="F9" s="12">
         <v>45268</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
@@ -4519,7 +4516,7 @@
         <v>45276</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="12"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F11282D-BFBB-1348-AADA-25C8A5B72B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D1C8F0-B15D-1941-B3FB-C9D9CD524172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="132">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -4259,7 +4259,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4397,7 +4397,9 @@
       <c r="I5" s="12">
         <v>45236</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="40.25" customHeight="1">

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D1C8F0-B15D-1941-B3FB-C9D9CD524172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8121397A-DE69-4ED8-96F6-8A9AE62DB854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="130">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1437,23 +1437,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中川</t>
-    <rPh sb="0" eb="1">
-      <t>ナカガウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バックの処理</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>斎藤</t>
-    <rPh sb="0" eb="2">
-      <t>サイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2008,13 +1994,13 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2080,7 +2066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.25" customHeight="1">
+    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2113,7 +2099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.25" customHeight="1">
+    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2146,7 +2132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.25" customHeight="1">
+    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2179,7 +2165,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.25" customHeight="1">
+    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2212,7 +2198,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.25" customHeight="1">
+    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2245,7 +2231,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.25" customHeight="1">
+    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2278,8 +2264,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -2293,7 +2279,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2310,7 +2296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2327,7 +2313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40" customHeight="1">
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2344,7 +2330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40" customHeight="1">
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2361,56 +2347,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40" customHeight="1">
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40" customHeight="1">
+    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40" customHeight="1">
+    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40" customHeight="1">
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40" customHeight="1">
+    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40" customHeight="1">
+    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40" customHeight="1">
+    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -2436,19 +2422,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2451,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2481,7 +2467,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2513,7 +2499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2535,7 +2521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2557,7 +2543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2579,7 +2565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2601,7 +2587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2613,7 +2599,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2625,7 +2611,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2637,7 +2623,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2649,7 +2635,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2661,7 +2647,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2692,19 +2678,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2721,7 +2707,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2737,7 +2723,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2769,7 +2755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2791,7 +2777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2813,7 +2799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2833,7 +2819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2853,7 +2839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2865,7 +2851,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2877,7 +2863,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2889,7 +2875,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2901,7 +2887,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2913,7 +2899,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2944,19 +2930,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2973,7 +2959,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2989,7 +2975,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3021,7 +3007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3043,7 +3029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3065,7 +3051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3087,7 +3073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3109,7 +3095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3121,7 +3107,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3133,7 +3119,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3145,7 +3131,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3157,7 +3143,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3169,7 +3155,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3200,19 +3186,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3229,7 +3215,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3245,7 +3231,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3295,7 +3281,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3313,7 +3299,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3331,7 +3317,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3349,7 +3335,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3367,7 +3353,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3379,7 +3365,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3391,7 +3377,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3403,7 +3389,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3415,7 +3401,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3446,19 +3432,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3475,7 +3461,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3491,7 +3477,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3523,7 +3509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3539,7 +3525,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3555,7 +3541,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3571,7 +3557,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3587,7 +3573,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3603,7 +3589,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3619,7 +3605,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3631,7 +3617,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3643,7 +3629,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3655,7 +3641,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3686,19 +3672,19 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3715,7 +3701,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3731,7 +3717,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3763,7 +3749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3785,7 +3771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3807,7 +3793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3829,7 +3815,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3841,7 +3827,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3853,7 +3839,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3865,7 +3851,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3877,7 +3863,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3889,7 +3875,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3901,7 +3887,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3932,13 +3918,13 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4004,7 +3990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.25" customHeight="1">
+    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4037,7 +4023,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.25" customHeight="1">
+    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4070,7 +4056,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.25" customHeight="1">
+    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4103,7 +4089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.25" customHeight="1">
+    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4136,7 +4122,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.25" customHeight="1">
+    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4149,7 +4135,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.25" customHeight="1">
+    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4162,8 +4148,8 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -4177,7 +4163,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -4194,49 +4180,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40" customHeight="1">
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40" customHeight="1">
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40" customHeight="1">
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40" customHeight="1">
+    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40" customHeight="1">
+    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -4258,17 +4244,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4334,7 +4320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.25" customHeight="1">
+    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4351,7 +4337,7 @@
         <v>120</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>98</v>
@@ -4369,7 +4355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.25" customHeight="1">
+    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4383,10 +4369,10 @@
         <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>119</v>
@@ -4402,7 +4388,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.25" customHeight="1">
+    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4419,15 +4405,13 @@
       <c r="F6" s="12">
         <v>45268</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.25" customHeight="1">
+    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4444,15 +4428,13 @@
       <c r="F7" s="12">
         <v>45268</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>111</v>
-      </c>
+      <c r="G7" s="12"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="40.25" customHeight="1">
+    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4469,15 +4451,13 @@
       <c r="F8" s="12">
         <v>45268</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>129</v>
-      </c>
+      <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.25" customHeight="1">
+    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4494,15 +4474,13 @@
       <c r="F9" s="12">
         <v>45268</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.25" customHeight="1">
+    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4510,22 +4488,20 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="12">
-        <v>45276</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>26</v>
-      </c>
+        <v>45271</v>
+      </c>
+      <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -4539,7 +4515,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -4556,49 +4532,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40" customHeight="1">
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40" customHeight="1">
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40" customHeight="1">
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40" customHeight="1">
+    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40" customHeight="1">
+    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -4624,19 +4600,19 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4654,7 +4630,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4670,7 +4646,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4702,7 +4678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4718,7 +4694,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4734,7 +4710,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4750,7 +4726,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4766,7 +4742,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4782,7 +4758,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4794,7 +4770,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4806,7 +4782,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4818,7 +4794,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4830,7 +4806,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4861,19 +4837,19 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4891,7 +4867,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4907,7 +4883,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4939,7 +4915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4955,7 +4931,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4971,7 +4947,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4987,7 +4963,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5003,7 +4979,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5019,7 +4995,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5031,7 +5007,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5043,7 +5019,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5055,7 +5031,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5067,7 +5043,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5098,19 +5074,19 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5129,7 +5105,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5145,7 +5121,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5177,7 +5153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5199,7 +5175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5221,7 +5197,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5243,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5265,7 +5241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5287,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5299,7 +5275,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5311,7 +5287,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5323,7 +5299,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5335,7 +5311,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5366,19 +5342,19 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5395,7 +5371,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5411,7 +5387,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5443,7 +5419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5465,7 +5441,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5487,7 +5463,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5509,7 +5485,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5531,7 +5507,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5543,7 +5519,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5555,7 +5531,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5567,7 +5543,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5579,7 +5555,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5591,7 +5567,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5622,19 +5598,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5651,7 +5627,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5667,7 +5643,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5699,7 +5675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5715,7 +5691,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5731,7 +5707,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5747,7 +5723,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5763,7 +5739,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5775,7 +5751,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5787,7 +5763,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5799,7 +5775,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5811,7 +5787,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5823,7 +5799,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5854,19 +5830,19 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40" customHeight="1">
+    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5883,7 +5859,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1">
+    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5899,7 +5875,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1">
+    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5931,7 +5907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5953,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1">
+    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5975,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1">
+    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5997,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1">
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -6019,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1">
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -6041,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1">
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -6063,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1">
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -6085,7 +6061,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1">
+    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -6107,7 +6083,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1">
+    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -6119,7 +6095,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1">
+    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8121397A-DE69-4ED8-96F6-8A9AE62DB854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972A04D-08AA-7347-A9E3-04F11B83B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="780" windowWidth="30660" windowHeight="20260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="131">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1404,10 +1404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バック、　　フロント結合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Top</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1437,9 +1433,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バックの処理</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
+    <t>中川</t>
+    <rPh sb="0" eb="1">
+      <t>ナカガウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斎藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1452,6 +1455,10 @@
   </si>
   <si>
     <t>2023/11/31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1994,13 +2001,13 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2066,7 +2073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2099,7 +2106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2165,7 +2172,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2264,8 +2271,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -2279,7 +2286,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2296,7 +2303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2320,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2330,7 +2337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2347,56 +2354,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="3:7" ht="40" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -2422,19 +2429,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2451,7 +2458,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2467,7 +2474,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2499,7 +2506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2521,7 +2528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2543,7 +2550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2565,7 +2572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2587,7 +2594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2599,7 +2606,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2611,7 +2618,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2623,7 +2630,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2635,7 +2642,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2647,7 +2654,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2678,19 +2685,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +2714,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2723,7 +2730,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2755,7 +2762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2777,7 +2784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2799,7 +2806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2819,7 +2826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2839,7 +2846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2851,7 +2858,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2863,7 +2870,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2875,7 +2882,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2887,7 +2894,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2899,7 +2906,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2930,19 +2937,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2959,7 +2966,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2975,7 +2982,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3007,7 +3014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3029,7 +3036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3051,7 +3058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3073,7 +3080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3095,7 +3102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3107,7 +3114,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3119,7 +3126,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3131,7 +3138,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3143,7 +3150,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3155,7 +3162,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3186,19 +3193,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3215,7 +3222,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3231,7 +3238,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3263,7 +3270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3281,7 +3288,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3299,7 +3306,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3317,7 +3324,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3335,7 +3342,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3353,7 +3360,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3365,7 +3372,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3377,7 +3384,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3389,7 +3396,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3401,7 +3408,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3432,19 +3439,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3461,7 +3468,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3477,7 +3484,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3509,7 +3516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3525,7 +3532,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3541,7 +3548,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3557,7 +3564,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3573,7 +3580,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3589,7 +3596,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3605,7 +3612,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3617,7 +3624,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3629,7 +3636,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3641,7 +3648,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3672,19 +3679,19 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3701,7 +3708,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3717,7 +3724,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3749,7 +3756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3771,7 +3778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3793,7 +3800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3815,7 +3822,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3827,7 +3834,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3839,7 +3846,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3851,7 +3858,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3863,7 +3870,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3875,7 +3882,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3887,7 +3894,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3918,13 +3925,13 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3990,7 +3997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4023,7 +4030,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4056,7 +4063,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4089,7 +4096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4122,7 +4129,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4135,7 +4142,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4148,8 +4155,8 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -4163,7 +4170,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -4180,49 +4187,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -4242,19 +4249,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4320,7 +4327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4333,9 +4340,7 @@
       <c r="D4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="12" t="s">
         <v>129</v>
       </c>
@@ -4355,7 +4360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4368,9 +4373,7 @@
       <c r="D5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="12" t="s">
         <v>129</v>
       </c>
@@ -4388,7 +4391,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4396,22 +4399,24 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12">
         <v>45268</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4419,22 +4424,26 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12">
         <v>45268</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.9</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4442,22 +4451,24 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="12">
         <v>45268</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4465,22 +4476,24 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="12">
         <v>45268</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4488,12 +4501,14 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="12">
-        <v>45271</v>
+        <v>45276</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -4501,86 +4516,109 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="12">
+        <v>45276</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1">
+      <c r="C12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="31" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C12" s="15" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" ht="40" customHeight="1">
+      <c r="C13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40" customHeight="1">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4600,19 +4638,19 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4630,7 +4668,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4646,7 +4684,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4678,7 +4716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4694,7 +4732,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4710,7 +4748,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4726,7 +4764,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4742,7 +4780,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4758,7 +4796,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4770,7 +4808,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4782,7 +4820,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4794,7 +4832,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4806,7 +4844,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4837,19 +4875,19 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4867,7 +4905,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4883,7 +4921,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4915,7 +4953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4931,7 +4969,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4947,7 +4985,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4963,7 +5001,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4979,7 +5017,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4995,7 +5033,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5007,7 +5045,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5019,7 +5057,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5031,7 +5069,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5043,7 +5081,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5074,19 +5112,19 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5105,7 +5143,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5121,7 +5159,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5153,7 +5191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5175,7 +5213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5197,7 +5235,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5219,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5241,7 +5279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5263,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5275,7 +5313,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5287,7 +5325,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5299,7 +5337,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5311,7 +5349,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5342,19 +5380,19 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5371,7 +5409,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5387,7 +5425,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5419,7 +5457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5441,7 +5479,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5463,7 +5501,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5485,7 +5523,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5507,7 +5545,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5519,7 +5557,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5531,7 +5569,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5543,7 +5581,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5555,7 +5593,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5567,7 +5605,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5598,19 +5636,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5627,7 +5665,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5643,7 +5681,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5675,7 +5713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5691,7 +5729,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5707,7 +5745,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5723,7 +5761,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5739,7 +5777,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5751,7 +5789,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5763,7 +5801,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5775,7 +5813,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5787,7 +5825,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5799,7 +5837,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5830,19 +5868,19 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5859,7 +5897,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5875,7 +5913,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5907,7 +5945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5929,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5951,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5973,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5995,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -6017,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -6039,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -6061,7 +6099,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -6083,7 +6121,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -6095,7 +6133,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8121397A-DE69-4ED8-96F6-8A9AE62DB854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0759B-D842-49D0-B26F-81B39F2E0881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="134">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1452,6 +1452,40 @@
   </si>
   <si>
     <t>2023/11/31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web(仮)公開</t>
+    <rPh sb="4" eb="5">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン以降各画面、セッションを管理する</t>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3914,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013CEB2-215A-42C0-AA0F-B7E4C02F5CF6}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -4242,10 +4276,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -4396,14 +4430,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12">
-        <v>45268</v>
+        <v>45264</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="14"/>
@@ -4419,10 +4453,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12">
@@ -4439,33 +4473,33 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="12">
         <v>45268</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>125</v>
@@ -4474,26 +4508,28 @@
       <c r="F9" s="12">
         <v>45268</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="12">
-        <v>45271</v>
+        <v>45268</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -4501,86 +4537,143 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="12">
+        <v>45268</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="12">
+        <v>45271</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="31" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C12" s="15" t="s">
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+      <c r="C15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G15" s="21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0759B-D842-49D0-B26F-81B39F2E0881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348E614-1D6A-6C48-805E-B80D1327A814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="134">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1416,10 +1416,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Account</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1486,6 +1482,10 @@
     <rPh sb="16" eb="18">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Region</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2028,13 +2028,13 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2100,7 +2100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2298,8 +2298,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2381,56 +2381,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="3:7" ht="40" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -2456,19 +2456,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2555,7 +2555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2577,7 +2577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2599,7 +2599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2621,7 +2621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2633,7 +2633,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2645,7 +2645,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2657,7 +2657,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2669,7 +2669,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2681,7 +2681,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2712,19 +2712,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2811,7 +2811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2833,7 +2833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2853,7 +2853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2873,7 +2873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2885,7 +2885,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2897,7 +2897,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2909,7 +2909,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2921,7 +2921,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2933,7 +2933,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2964,19 +2964,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3063,7 +3063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3085,7 +3085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3107,7 +3107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3129,7 +3129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3141,7 +3141,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3153,7 +3153,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3165,7 +3165,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3177,7 +3177,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3189,7 +3189,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3220,19 +3220,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3399,7 +3399,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3411,7 +3411,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3423,7 +3423,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3435,7 +3435,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3466,19 +3466,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3559,7 +3559,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3575,7 +3575,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3591,7 +3591,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3607,7 +3607,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3623,7 +3623,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3639,7 +3639,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3651,7 +3651,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3663,7 +3663,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3675,7 +3675,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3706,19 +3706,19 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3805,7 +3805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3827,7 +3827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3849,7 +3849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3861,7 +3861,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3873,7 +3873,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3885,7 +3885,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3897,7 +3897,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3909,7 +3909,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3921,7 +3921,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3952,13 +3952,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4024,7 +4024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4169,7 +4169,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4182,8 +4182,8 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -4197,7 +4197,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -4214,49 +4214,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -4279,16 +4279,16 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4354,7 +4354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>120</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>98</v>
@@ -4389,7 +4389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4403,10 +4403,10 @@
         <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>119</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4430,10 +4430,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12">
@@ -4445,7 +4445,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4453,10 +4453,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12">
@@ -4468,7 +4468,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="12">
@@ -4491,7 +4491,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4502,19 +4502,23 @@
         <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="12">
         <v>45268</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4522,10 +4526,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="12">
@@ -4537,7 +4541,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="11" spans="1:11" ht="40.25" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4545,10 +4549,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="12">
@@ -4560,7 +4564,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="12" spans="1:11" ht="40.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4581,7 +4585,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="13" spans="1:11" ht="40.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4594,7 +4598,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
@@ -4608,7 +4612,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="15" t="s">
         <v>7</v>
       </c>
@@ -4625,49 +4629,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="22" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -4693,19 +4697,19 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4723,7 +4727,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4739,7 +4743,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4771,7 +4775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4787,7 +4791,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4803,7 +4807,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4819,7 +4823,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4835,7 +4839,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4851,7 +4855,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4863,7 +4867,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4875,7 +4879,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4887,7 +4891,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4899,7 +4903,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4930,19 +4934,19 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4960,7 +4964,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4976,7 +4980,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5024,7 +5028,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5040,7 +5044,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5056,7 +5060,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5072,7 +5076,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5088,7 +5092,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5100,7 +5104,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5112,7 +5116,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5124,7 +5128,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5136,7 +5140,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5167,19 +5171,19 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5198,7 +5202,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5214,7 +5218,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5268,7 +5272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5290,7 +5294,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5312,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5334,7 +5338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5356,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5368,7 +5372,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5380,7 +5384,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5392,7 +5396,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5404,7 +5408,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5435,19 +5439,19 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5464,7 +5468,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5480,7 +5484,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5512,7 +5516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5534,7 +5538,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5556,7 +5560,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5578,7 +5582,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5600,7 +5604,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5612,7 +5616,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5624,7 +5628,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5636,7 +5640,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5648,7 +5652,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5660,7 +5664,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5691,19 +5695,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5720,7 +5724,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5736,7 +5740,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5784,7 +5788,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5800,7 +5804,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5816,7 +5820,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5832,7 +5836,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5844,7 +5848,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5856,7 +5860,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5868,7 +5872,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5880,7 +5884,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5892,7 +5896,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5923,19 +5927,19 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5952,7 +5956,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5968,7 +5972,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -6022,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -6044,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -6066,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -6088,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -6110,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -6132,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -6154,7 +6158,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -6176,7 +6180,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -6188,7 +6192,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0759B-D842-49D0-B26F-81B39F2E0881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C5F75-864C-DB4F-82A9-45CB1723B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="136">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1472,10 +1472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面の修正</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン以降各画面、セッションを管理する</t>
     <rPh sb="4" eb="6">
       <t>イコウ</t>
@@ -1485,6 +1481,27 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示の確認</t>
+    <rPh sb="0" eb="4">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終確認</t>
+    <rPh sb="0" eb="4">
+      <t>サイシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2028,13 +2045,13 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2100,7 +2117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2133,7 +2150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2166,7 +2183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2199,7 +2216,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2232,7 +2249,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2265,7 +2282,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2298,8 +2315,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -2313,7 +2330,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -2330,7 +2347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2347,7 +2364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2364,7 +2381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2381,56 +2398,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="22" spans="3:7" ht="40" customHeight="1">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="23" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
@@ -2456,19 +2473,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2485,7 +2502,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2501,7 +2518,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2533,7 +2550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2555,7 +2572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2577,7 +2594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2599,7 +2616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2621,7 +2638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2633,7 +2650,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2645,7 +2662,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2657,7 +2674,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2669,7 +2686,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2681,7 +2698,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2712,19 +2729,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2741,7 +2758,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -2757,7 +2774,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +2806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -2811,7 +2828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -2833,7 +2850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -2853,7 +2870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -2873,7 +2890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -2885,7 +2902,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -2897,7 +2914,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -2909,7 +2926,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -2921,7 +2938,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -2933,7 +2950,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -2964,19 +2981,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2993,7 +3010,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3009,7 +3026,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +3058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3063,7 +3080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3085,7 +3102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3107,7 +3124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3129,7 +3146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3141,7 +3158,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3153,7 +3170,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3165,7 +3182,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3177,7 +3194,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3189,7 +3206,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3220,19 +3237,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3249,7 +3266,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3265,7 +3282,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3297,7 +3314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3315,7 +3332,7 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3333,7 +3350,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3351,7 +3368,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3369,7 +3386,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3387,7 +3404,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3399,7 +3416,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3411,7 +3428,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3423,7 +3440,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3435,7 +3452,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3466,19 +3483,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3512,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3511,7 +3528,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3559,7 +3576,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3575,7 +3592,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3591,7 +3608,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3607,7 +3624,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3623,7 +3640,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3639,7 +3656,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3651,7 +3668,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3663,7 +3680,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3675,7 +3692,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3706,19 +3723,19 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3735,7 +3752,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -3751,7 +3768,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -3805,7 +3822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -3827,7 +3844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -3849,7 +3866,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -3861,7 +3878,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -3873,7 +3890,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -3885,7 +3902,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -3897,7 +3914,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -3909,7 +3926,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -3921,7 +3938,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -3952,13 +3969,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4024,7 +4041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4057,7 +4074,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4090,7 +4107,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4123,7 +4140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4156,7 +4173,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4169,7 +4186,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4182,8 +4199,8 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1"/>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
@@ -4197,7 +4214,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
@@ -4214,49 +4231,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="19" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -4278,17 +4295,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.69921875" style="2" customWidth="1"/>
-    <col min="5" max="11" width="12.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="12.6640625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4354,7 +4371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="40.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4389,7 +4406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="5" spans="1:11" ht="40.25" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4422,7 +4439,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4433,7 +4450,7 @@
         <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12">
@@ -4445,7 +4462,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4456,7 +4473,7 @@
         <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12">
@@ -4468,7 +4485,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4487,11 +4504,17 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="I8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.25" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4509,12 +4532,20 @@
         <v>45268</v>
       </c>
       <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="H9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.25" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4533,11 +4564,17 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="I10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="40.25" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4556,11 +4593,17 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="I11" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="40.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4570,7 +4613,9 @@
       <c r="C12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="12">
         <v>45271</v>
@@ -4578,10 +4623,10 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="40.200000000000003" customHeight="1">
+      <c r="J12" s="12"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4594,7 +4639,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:11" ht="40" customHeight="1">
       <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
@@ -4608,7 +4653,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="15" spans="1:11" ht="40" customHeight="1">
       <c r="C15" s="15" t="s">
         <v>7</v>
       </c>
@@ -4625,49 +4670,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="1:11" ht="40" customHeight="1">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="17" spans="3:7" ht="40" customHeight="1">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="18" spans="3:7" ht="40" customHeight="1">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="19" spans="3:7" ht="40" customHeight="1">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="20" spans="3:7" ht="40" customHeight="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="3:7" ht="40.049999999999997" customHeight="1">
+    <row r="21" spans="3:7" ht="40" customHeight="1">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="3:7" ht="40.049999999999997" customHeight="1"/>
+    <row r="22" spans="3:7" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
@@ -4693,19 +4738,19 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4723,7 +4768,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4739,7 +4784,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4771,7 +4816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -4787,7 +4832,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -4803,7 +4848,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -4819,7 +4864,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -4835,7 +4880,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -4851,7 +4896,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -4863,7 +4908,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -4875,7 +4920,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -4887,7 +4932,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -4899,7 +4944,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -4930,19 +4975,19 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -4960,7 +5005,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -4976,7 +5021,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5008,7 +5053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5024,7 +5069,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5040,7 +5085,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5056,7 +5101,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5072,7 +5117,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5088,7 +5133,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5100,7 +5145,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5112,7 +5157,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5124,7 +5169,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5136,7 +5181,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5167,19 +5212,19 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5198,7 +5243,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5214,7 +5259,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5246,7 +5291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5268,7 +5313,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5290,7 +5335,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5312,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5334,7 +5379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5356,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5368,7 +5413,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5380,7 +5425,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5392,7 +5437,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5404,7 +5449,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5435,19 +5480,19 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5464,7 +5509,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5480,7 +5525,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5512,7 +5557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5534,7 +5579,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5556,7 +5601,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5578,7 +5623,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5600,7 +5645,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5612,7 +5657,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5624,7 +5669,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5636,7 +5681,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5648,7 +5693,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5660,7 +5705,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5691,19 +5736,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5720,7 +5765,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5736,7 +5781,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -5768,7 +5813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -5784,7 +5829,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -5800,7 +5845,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -5816,7 +5861,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -5832,7 +5877,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -5844,7 +5889,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -5856,7 +5901,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -5868,7 +5913,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -5880,7 +5925,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -5892,7 +5937,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>
@@ -5923,19 +5968,19 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="20.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="60.69921875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:11" ht="40" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -5952,7 +5997,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
@@ -5968,7 +6013,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="3" spans="1:11" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -6000,7 +6045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:11" ht="40" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -6022,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="13"/>
@@ -6044,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="13"/>
@@ -6066,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="13"/>
@@ -6088,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="13"/>
@@ -6110,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="13"/>
@@ -6132,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="10" spans="1:11" ht="40" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="13"/>
@@ -6154,7 +6199,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="11" spans="1:11" ht="40" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="13"/>
@@ -6176,7 +6221,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="12" spans="1:11" ht="40" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="13"/>
@@ -6188,7 +6233,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="13" spans="1:11" ht="40" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="13"/>

--- a/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum3_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C5F75-864C-DB4F-82A9-45CB1723B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B01D86B-DB7E-A347-BAC5-1E7F1CFF65A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13180" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="139">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -1397,13 +1397,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　中川</t>
-    <rPh sb="2" eb="4">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バック、　　フロント結合</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1451,10 +1444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2023/11/31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>web(仮)公開</t>
     <rPh sb="4" eb="5">
       <t>カリ</t>
@@ -1502,6 +1491,44 @@
     <t>最終確認</t>
     <rPh sb="0" eb="4">
       <t>サイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒見</t>
+    <rPh sb="0" eb="2">
+      <t>Sakemi</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒見</t>
+    <rPh sb="0" eb="1">
+      <t>サケミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力待ち</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">マチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力待ち</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施前</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1658,7 +1685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1758,6 +1785,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4295,8 +4343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C9CB6-B9B0-E646-8554-24A330996AFE}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4385,10 +4433,10 @@
         <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="F4" s="12">
+        <v>45260</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>98</v>
@@ -4420,13 +4468,13 @@
         <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="F5" s="12">
+        <v>45260</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>96</v>
@@ -4437,7 +4485,9 @@
       <c r="J5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40.25" customHeight="1">
       <c r="A6" s="1">
@@ -4447,20 +4497,30 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="12">
-        <v>45264</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="14"/>
+      <c r="G6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="12">
+        <v>45277</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="40.25" customHeight="1">
       <c r="A7" s="1">
@@ -4470,20 +4530,30 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12">
         <v>45268</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="14"/>
+      <c r="G7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="40.25" customHeight="1">
       <c r="A8" s="1">
@@ -4493,25 +4563,29 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="12">
         <v>45268</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I8" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="40.25" customHeight="1">
@@ -4522,27 +4596,29 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="12">
         <v>45268</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="H9" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="40.25" customHeight="1">
@@ -4553,25 +4629,29 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="12">
         <v>45268</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.9</v>
+      </c>
       <c r="I10" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="40.25" customHeight="1">
@@ -4582,25 +4662,29 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="12">
-        <v>45268</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12" t="s">
-        <v>134</v>
+      <c r="F11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="12">
+        <v>45277</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="40.25" customHeight="1">
@@ -4611,39 +4695,49 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="12">
-        <v>45271</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="14"/>
+        <v>44936</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="40.25" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="40" customHeight="1">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="31" t="s">
         <v>76</v>
       </c>
@@ -4734,8 +4828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A720D-9B7C-E54A-9628-BDBC0D0FC280}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4828,9 +4922,15 @@
       <c r="H4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
@@ -4844,9 +4944,15 @@
       <c r="H5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14"/>
+      <c r="I5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
@@ -4860,9 +4966,15 @@
       <c r="H6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="14"/>
+      <c r="I6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
@@ -4876,9 +4988,15 @@
       <c r="H7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
@@ -4892,9 +5010,15 @@
       <c r="H8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
@@ -4971,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB37874F-6B9F-8E4A-871B-FF93100ED50C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -5065,9 +5189,15 @@
       <c r="H4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1">
       <c r="A5" s="6"/>
@@ -5081,9 +5211,15 @@
       <c r="H5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14"/>
+      <c r="I5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1">
       <c r="A6" s="6"/>
@@ -5097,9 +5233,15 @@
       <c r="H6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="14"/>
+      <c r="I6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1">
       <c r="A7" s="6"/>
@@ -5113,9 +5255,15 @@
       <c r="H7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="40" customHeight="1">
       <c r="A8" s="6"/>
@@ -5129,9 +5277,15 @@
       <c r="H8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="40" customHeight="1">
       <c r="A9" s="6"/>
